--- a/posizioni.xlsx
+++ b/posizioni.xlsx
@@ -873,16 +873,38 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>8.566925710578744</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>8.852081020441261</v>
+      </c>
+      <c r="E24" t="n">
+        <v>112</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-991.4330742894213</v>
+      </c>
+      <c r="G24" t="n">
+        <v>13.27812153066189</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.409476969419197</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.852081020441261</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8.952048831395997</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8.652145398531793</v>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -907,18 +929,42 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>950.4283462855288</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>8.409476969419197</v>
+      </c>
+      <c r="E26" t="n">
+        <v>112</v>
+      </c>
+      <c r="F26" t="n">
+        <v>991.4330742894213</v>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>8.464484247353687</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8.60035840688205</v>
+      </c>
+      <c r="K26" t="n">
+        <v>8.362578357749456</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -941,16 +987,38 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>6.893768595797837</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>8.577587069906645</v>
+      </c>
+      <c r="E28" t="n">
+        <v>110</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-943.534577689731</v>
+      </c>
+      <c r="G28" t="n">
+        <v>12.86638060485997</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.148707716411312</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.577587069906645</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.90266013533607</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8.541468095570373</v>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
     </row>
@@ -1298,18 +1366,42 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="B49" t="n">
+        <v>1012.228411274763</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>9.139405842536048</v>
+      </c>
+      <c r="E49" t="n">
+        <v>110</v>
+      </c>
+      <c r="F49" t="n">
+        <v>943.534577689731</v>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>8.956027945534244</v>
+      </c>
+      <c r="J49" t="n">
+        <v>9.212757700869709</v>
+      </c>
+      <c r="K49" t="n">
+        <v>8.956027945534244</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2692,38 +2784,16 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
-        <v>2.307015311434611</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>3.260434590485508</v>
-      </c>
-      <c r="E131" t="n">
-        <v>306</v>
-      </c>
-      <c r="F131" t="n">
-        <v>-997.6929846885654</v>
-      </c>
-      <c r="G131" t="n">
-        <v>4.890651885728261</v>
-      </c>
-      <c r="H131" t="n">
-        <v>3.097412860961232</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3.260434590485508</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3.51360983909465</v>
-      </c>
-      <c r="K131" t="n">
-        <v>3.260434590485508</v>
-      </c>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
     </row>
@@ -3071,57 +3141,55 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
-        <v>1174.929234378764</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>3.832098755121991</v>
-      </c>
-      <c r="E152" t="n">
-        <v>306</v>
-      </c>
-      <c r="F152" t="n">
-        <v>997.6929846885654</v>
-      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="n">
-        <v>3.891224044081041</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.891224044081041</v>
-      </c>
-      <c r="K152" t="n">
-        <v>3.787754788402705</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>18</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="B153" t="n">
+        <v>4.461812574507803</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>9.161514533638686</v>
+      </c>
+      <c r="E153" t="n">
+        <v>110</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-1007.766598700255</v>
+      </c>
+      <c r="G153" t="n">
+        <v>13.74227180045803</v>
+      </c>
+      <c r="H153" t="n">
+        <v>8.703438806956751</v>
+      </c>
+      <c r="I153" t="n">
+        <v>9.161514533638686</v>
+      </c>
+      <c r="J153" t="n">
+        <v>9.262830111369219</v>
+      </c>
+      <c r="K153" t="n">
+        <v>9.009540764450568</v>
+      </c>
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
     </row>
@@ -3316,18 +3384,42 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
+      <c r="B165" t="n">
+        <v>961.8400813397503</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>8.703438806956751</v>
+      </c>
+      <c r="E165" t="n">
+        <v>110</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1007.766598700255</v>
+      </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>8.882896493583559</v>
+      </c>
+      <c r="J165" t="n">
+        <v>8.958883378177619</v>
+      </c>
+      <c r="K165" t="n">
+        <v>8.452304684340312</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5730,38 +5822,16 @@
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
-        <v>1.825851863826301</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D307" t="n">
-        <v>3.55485873489375</v>
-      </c>
-      <c r="E307" t="n">
-        <v>330</v>
-      </c>
-      <c r="F307" t="n">
-        <v>-1173.103382514937</v>
-      </c>
-      <c r="G307" t="n">
-        <v>5.332288102340625</v>
-      </c>
-      <c r="H307" t="n">
-        <v>3.377115798149062</v>
-      </c>
-      <c r="I307" t="n">
-        <v>3.55485873489375</v>
-      </c>
-      <c r="J307" t="n">
-        <v>3.596498945780288</v>
-      </c>
-      <c r="K307" t="n">
-        <v>3.525115828421484</v>
-      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
       <c r="M307" t="inlineStr"/>
     </row>
@@ -5922,42 +5992,18 @@
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
-        <v>1116.274065253017</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D317" t="n">
-        <v>3.377115798149062</v>
-      </c>
-      <c r="E317" t="n">
-        <v>330</v>
-      </c>
-      <c r="F317" t="n">
-        <v>1173.103382514937</v>
-      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr"/>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
-      <c r="I317" t="n">
-        <v>3.398010354981614</v>
-      </c>
-      <c r="J317" t="n">
-        <v>3.398010354981614</v>
-      </c>
-      <c r="K317" t="n">
-        <v>3.37146430394199</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M317" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -6694,38 +6740,16 @@
       <c r="A361" s="1" t="n">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
-        <v>3.260289313276417</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D361" t="n">
-        <v>3.511084466686879</v>
-      </c>
-      <c r="E361" t="n">
-        <v>317</v>
-      </c>
-      <c r="F361" t="n">
-        <v>-1113.013775939741</v>
-      </c>
-      <c r="G361" t="n">
-        <v>5.266626700030319</v>
-      </c>
-      <c r="H361" t="n">
-        <v>3.335530243352535</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3.511084466686879</v>
-      </c>
-      <c r="J361" t="n">
-        <v>3.600449422775974</v>
-      </c>
-      <c r="K361" t="n">
-        <v>3.503637387012787</v>
-      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr"/>
       <c r="M361" t="inlineStr"/>
     </row>
@@ -6835,16 +6859,38 @@
       <c r="A368" s="1" t="n">
         <v>366</v>
       </c>
-      <c r="B368" t="inlineStr"/>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr"/>
-      <c r="E368" t="inlineStr"/>
-      <c r="F368" t="inlineStr"/>
-      <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr"/>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="B368" t="n">
+        <v>2.67332498627718</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>8.488201383659055</v>
+      </c>
+      <c r="E368" t="n">
+        <v>113</v>
+      </c>
+      <c r="F368" t="n">
+        <v>-959.1667563534731</v>
+      </c>
+      <c r="G368" t="n">
+        <v>12.73230207548858</v>
+      </c>
+      <c r="H368" t="n">
+        <v>8.063791314476102</v>
+      </c>
+      <c r="I368" t="n">
+        <v>8.488201383659055</v>
+      </c>
+      <c r="J368" t="n">
+        <v>8.638753291446477</v>
+      </c>
+      <c r="K368" t="n">
+        <v>8.404561375802874</v>
+      </c>
       <c r="L368" t="inlineStr"/>
       <c r="M368" t="inlineStr"/>
     </row>
@@ -7073,42 +7119,18 @@
       <c r="A382" s="1" t="n">
         <v>380</v>
       </c>
-      <c r="B382" t="n">
-        <v>1250.835460452384</v>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D382" t="n">
-        <v>3.935568363214849</v>
-      </c>
-      <c r="E382" t="n">
-        <v>317</v>
-      </c>
-      <c r="F382" t="n">
-        <v>1113.013775939741</v>
-      </c>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr"/>
+      <c r="D382" t="inlineStr"/>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
       <c r="H382" t="inlineStr"/>
-      <c r="I382" t="n">
-        <v>3.81598281056205</v>
-      </c>
-      <c r="J382" t="n">
-        <v>3.935568363214849</v>
-      </c>
-      <c r="K382" t="n">
-        <v>3.803394691794972</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M382" t="n">
-        <v>12</v>
-      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
+      <c r="M382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -7216,18 +7238,42 @@
       <c r="A389" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="B389" t="inlineStr"/>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
+      <c r="B389" t="n">
+        <v>1015.924004340159</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>8.966820171273293</v>
+      </c>
+      <c r="E389" t="n">
+        <v>113</v>
+      </c>
+      <c r="F389" t="n">
+        <v>959.1667563534731</v>
+      </c>
       <c r="G389" t="inlineStr"/>
       <c r="H389" t="inlineStr"/>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
-      <c r="M389" t="inlineStr"/>
+      <c r="I389" t="n">
+        <v>9.113965976686933</v>
+      </c>
+      <c r="J389" t="n">
+        <v>9.172824298852387</v>
+      </c>
+      <c r="K389" t="n">
+        <v>8.966820171273293</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M389" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -8933,38 +8979,16 @@
       <c r="A490" s="1" t="n">
         <v>488</v>
       </c>
-      <c r="B490" t="n">
-        <v>3.296519562942422</v>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D490" t="n">
-        <v>3.465385946915114</v>
-      </c>
-      <c r="E490" t="n">
-        <v>360</v>
-      </c>
-      <c r="F490" t="n">
-        <v>-1247.538940889441</v>
-      </c>
-      <c r="G490" t="n">
-        <v>5.198078920372671</v>
-      </c>
-      <c r="H490" t="n">
-        <v>3.292116649569358</v>
-      </c>
-      <c r="I490" t="n">
-        <v>3.465385946915114</v>
-      </c>
-      <c r="J490" t="n">
-        <v>3.515924675498697</v>
-      </c>
-      <c r="K490" t="n">
-        <v>3.465385946915114</v>
-      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr"/>
       <c r="M490" t="inlineStr"/>
     </row>
@@ -9312,42 +9336,18 @@
       <c r="A511" s="1" t="n">
         <v>509</v>
       </c>
-      <c r="B511" t="n">
-        <v>1363.734942746074</v>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D511" t="n">
-        <v>3.778995619953142</v>
-      </c>
-      <c r="E511" t="n">
-        <v>360</v>
-      </c>
-      <c r="F511" t="n">
-        <v>1247.538940889441</v>
-      </c>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
       <c r="H511" t="inlineStr"/>
-      <c r="I511" t="n">
-        <v>3.743410774458253</v>
-      </c>
-      <c r="J511" t="n">
-        <v>3.821697230929666</v>
-      </c>
-      <c r="K511" t="n">
-        <v>3.714943033807237</v>
-      </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M511" t="n">
-        <v>9</v>
-      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
+      <c r="M511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -9625,16 +9625,38 @@
       <c r="A528" s="1" t="n">
         <v>526</v>
       </c>
-      <c r="B528" t="inlineStr"/>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr"/>
-      <c r="H528" t="inlineStr"/>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="B528" t="n">
+        <v>2.882341702469034</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>8.658475749040088</v>
+      </c>
+      <c r="E528" t="n">
+        <v>117</v>
+      </c>
+      <c r="F528" t="n">
+        <v>-1013.04166263769</v>
+      </c>
+      <c r="G528" t="n">
+        <v>12.98771362356013</v>
+      </c>
+      <c r="H528" t="n">
+        <v>8.225551961588083</v>
+      </c>
+      <c r="I528" t="n">
+        <v>8.658475749040088</v>
+      </c>
+      <c r="J528" t="n">
+        <v>8.78620967982668</v>
+      </c>
+      <c r="K528" t="n">
+        <v>8.652393332832791</v>
+      </c>
       <c r="L528" t="inlineStr"/>
       <c r="M528" t="inlineStr"/>
     </row>
@@ -9948,18 +9970,42 @@
       <c r="A547" s="1" t="n">
         <v>545</v>
       </c>
-      <c r="B547" t="inlineStr"/>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr"/>
+      <c r="B547" t="n">
+        <v>965.2719212082748</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>8.225551961588083</v>
+      </c>
+      <c r="E547" t="n">
+        <v>117</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1013.04166263769</v>
+      </c>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr"/>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
-      <c r="M547" t="inlineStr"/>
+      <c r="I547" t="n">
+        <v>8.474161628441529</v>
+      </c>
+      <c r="J547" t="n">
+        <v>8.474161628441529</v>
+      </c>
+      <c r="K547" t="n">
+        <v>8.050286231204115</v>
+      </c>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M547" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -10917,38 +10963,16 @@
       <c r="A604" s="1" t="n">
         <v>602</v>
       </c>
-      <c r="B604" t="n">
-        <v>2.595304551365871</v>
-      </c>
-      <c r="C604" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D604" t="n">
-        <v>3.36915752028393</v>
-      </c>
-      <c r="E604" t="n">
-        <v>404</v>
-      </c>
-      <c r="F604" t="n">
-        <v>-1361.139638194708</v>
-      </c>
-      <c r="G604" t="n">
-        <v>5.053736280425895</v>
-      </c>
-      <c r="H604" t="n">
-        <v>3.200699644269733</v>
-      </c>
-      <c r="I604" t="n">
-        <v>3.36915752028393</v>
-      </c>
-      <c r="J604" t="n">
-        <v>3.549948062026093</v>
-      </c>
-      <c r="K604" t="n">
-        <v>3.36915752028393</v>
-      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
+      <c r="H604" t="inlineStr"/>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr"/>
       <c r="M604" t="inlineStr"/>
     </row>
@@ -11296,42 +11320,18 @@
       <c r="A625" s="1" t="n">
         <v>623</v>
       </c>
-      <c r="B625" t="n">
-        <v>2579.786774940612</v>
-      </c>
-      <c r="C625" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D625" t="n">
-        <v>3.200699644269733</v>
-      </c>
-      <c r="E625" t="n">
-        <v>404</v>
-      </c>
-      <c r="F625" t="n">
-        <v>1361.139638194708</v>
-      </c>
+      <c r="B625" t="inlineStr"/>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr"/>
       <c r="G625" t="inlineStr"/>
       <c r="H625" t="inlineStr"/>
-      <c r="I625" t="n">
-        <v>3.143989239733019</v>
-      </c>
-      <c r="J625" t="n">
-        <v>3.235983703443477</v>
-      </c>
-      <c r="K625" t="n">
-        <v>3.097992007877789</v>
-      </c>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M625" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="inlineStr"/>
+      <c r="M625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -11660,16 +11660,38 @@
       <c r="A645" s="1" t="n">
         <v>643</v>
       </c>
-      <c r="B645" t="inlineStr"/>
-      <c r="C645" t="inlineStr"/>
-      <c r="D645" t="inlineStr"/>
-      <c r="E645" t="inlineStr"/>
-      <c r="F645" t="inlineStr"/>
-      <c r="G645" t="inlineStr"/>
-      <c r="H645" t="inlineStr"/>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="B645" t="n">
+        <v>9.012994661335938</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>9.562589265469388</v>
+      </c>
+      <c r="E645" t="n">
+        <v>100</v>
+      </c>
+      <c r="F645" t="n">
+        <v>-956.2589265469388</v>
+      </c>
+      <c r="G645" t="n">
+        <v>14.34388389820408</v>
+      </c>
+      <c r="H645" t="n">
+        <v>9.084459802195918</v>
+      </c>
+      <c r="I645" t="n">
+        <v>9.562589265469388</v>
+      </c>
+      <c r="J645" t="n">
+        <v>9.618830925302362</v>
+      </c>
+      <c r="K645" t="n">
+        <v>9.356367760209995</v>
+      </c>
       <c r="L645" t="inlineStr"/>
       <c r="M645" t="inlineStr"/>
     </row>
@@ -11728,18 +11750,42 @@
       <c r="A649" s="1" t="n">
         <v>647</v>
       </c>
-      <c r="B649" t="inlineStr"/>
-      <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr"/>
-      <c r="E649" t="inlineStr"/>
-      <c r="F649" t="inlineStr"/>
+      <c r="B649" t="n">
+        <v>917.4589748809277</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>9.084459802195918</v>
+      </c>
+      <c r="E649" t="n">
+        <v>100</v>
+      </c>
+      <c r="F649" t="n">
+        <v>956.2589265469388</v>
+      </c>
       <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr"/>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
-      <c r="M649" t="inlineStr"/>
+      <c r="I649" t="n">
+        <v>9.24748319736781</v>
+      </c>
+      <c r="J649" t="n">
+        <v>9.266533965633258</v>
+      </c>
+      <c r="K649" t="n">
+        <v>8.999828660260754</v>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M649" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -11796,16 +11842,38 @@
       <c r="A653" s="1" t="n">
         <v>651</v>
       </c>
-      <c r="B653" t="inlineStr"/>
-      <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr"/>
-      <c r="E653" t="inlineStr"/>
-      <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
-      <c r="H653" t="inlineStr"/>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="B653" t="n">
+        <v>4.197819322199507</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>9.318991383252328</v>
+      </c>
+      <c r="E653" t="n">
+        <v>98</v>
+      </c>
+      <c r="F653" t="n">
+        <v>-913.2611555587282</v>
+      </c>
+      <c r="G653" t="n">
+        <v>13.97848707487849</v>
+      </c>
+      <c r="H653" t="n">
+        <v>8.85304181408971</v>
+      </c>
+      <c r="I653" t="n">
+        <v>9.318991383252328</v>
+      </c>
+      <c r="J653" t="n">
+        <v>10.0467811113943</v>
+      </c>
+      <c r="K653" t="n">
+        <v>9.318991383252328</v>
+      </c>
       <c r="L653" t="inlineStr"/>
       <c r="M653" t="inlineStr"/>
     </row>
@@ -12051,18 +12119,42 @@
       <c r="A668" s="1" t="n">
         <v>666</v>
       </c>
-      <c r="B668" t="inlineStr"/>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr"/>
-      <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr"/>
+      <c r="B668" t="n">
+        <v>871.7959171029911</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>8.85304181408971</v>
+      </c>
+      <c r="E668" t="n">
+        <v>98</v>
+      </c>
+      <c r="F668" t="n">
+        <v>913.2611555587282</v>
+      </c>
       <c r="G668" t="inlineStr"/>
       <c r="H668" t="inlineStr"/>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
-      <c r="M668" t="inlineStr"/>
+      <c r="I668" t="n">
+        <v>9.498354733122637</v>
+      </c>
+      <c r="J668" t="n">
+        <v>9.980735004167302</v>
+      </c>
+      <c r="K668" t="n">
+        <v>8.818636555702751</v>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M668" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -12323,16 +12415,38 @@
       <c r="A684" s="1" t="n">
         <v>682</v>
       </c>
-      <c r="B684" t="inlineStr"/>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr"/>
-      <c r="H684" t="inlineStr"/>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="B684" t="n">
+        <v>4.312029596314687</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>8.762463510168448</v>
+      </c>
+      <c r="E684" t="n">
+        <v>99</v>
+      </c>
+      <c r="F684" t="n">
+        <v>-867.4838875066764</v>
+      </c>
+      <c r="G684" t="n">
+        <v>13.14369526525267</v>
+      </c>
+      <c r="H684" t="n">
+        <v>8.324340334660025</v>
+      </c>
+      <c r="I684" t="n">
+        <v>8.762463510168448</v>
+      </c>
+      <c r="J684" t="n">
+        <v>9.054463171333159</v>
+      </c>
+      <c r="K684" t="n">
+        <v>8.672617625355834</v>
+      </c>
       <c r="L684" t="inlineStr"/>
       <c r="M684" t="inlineStr"/>
     </row>
@@ -12680,18 +12794,42 @@
       <c r="A705" s="1" t="n">
         <v>703</v>
       </c>
-      <c r="B705" t="inlineStr"/>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr"/>
+      <c r="B705" t="n">
+        <v>863.9040652118313</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>8.682747834500168</v>
+      </c>
+      <c r="E705" t="n">
+        <v>99</v>
+      </c>
+      <c r="F705" t="n">
+        <v>867.4838875066764</v>
+      </c>
       <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr"/>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
-      <c r="M705" t="inlineStr"/>
+      <c r="I705" t="n">
+        <v>8.519351091262655</v>
+      </c>
+      <c r="J705" t="n">
+        <v>8.706089590363096</v>
+      </c>
+      <c r="K705" t="n">
+        <v>8.519351091262655</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M705" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -12969,16 +13107,38 @@
       <c r="A722" s="1" t="n">
         <v>720</v>
       </c>
-      <c r="B722" t="inlineStr"/>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr"/>
-      <c r="H722" t="inlineStr"/>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="B722" t="n">
+        <v>6.132192128286874</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>8.752774215138208</v>
+      </c>
+      <c r="E722" t="n">
+        <v>98</v>
+      </c>
+      <c r="F722" t="n">
+        <v>-857.7718730835444</v>
+      </c>
+      <c r="G722" t="n">
+        <v>13.12916132270731</v>
+      </c>
+      <c r="H722" t="n">
+        <v>8.315135504381297</v>
+      </c>
+      <c r="I722" t="n">
+        <v>8.752774215138208</v>
+      </c>
+      <c r="J722" t="n">
+        <v>9.383017206126826</v>
+      </c>
+      <c r="K722" t="n">
+        <v>8.752774215138208</v>
+      </c>
       <c r="L722" t="inlineStr"/>
       <c r="M722" t="inlineStr"/>
     </row>
@@ -13003,18 +13163,42 @@
       <c r="A724" s="1" t="n">
         <v>722</v>
       </c>
-      <c r="B724" t="inlineStr"/>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr"/>
+      <c r="B724" t="n">
+        <v>821.015471557654</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>8.315135504381297</v>
+      </c>
+      <c r="E724" t="n">
+        <v>98</v>
+      </c>
+      <c r="F724" t="n">
+        <v>857.7718730835444</v>
+      </c>
       <c r="G724" t="inlineStr"/>
       <c r="H724" t="inlineStr"/>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
-      <c r="M724" t="inlineStr"/>
+      <c r="I724" t="n">
+        <v>8.986198452063011</v>
+      </c>
+      <c r="J724" t="n">
+        <v>8.986198452063011</v>
+      </c>
+      <c r="K724" t="n">
+        <v>8.285927967387103</v>
+      </c>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M724" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -13088,16 +13272,38 @@
       <c r="A729" s="1" t="n">
         <v>727</v>
       </c>
-      <c r="B729" t="inlineStr"/>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr"/>
-      <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr"/>
-      <c r="H729" t="inlineStr"/>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="B729" t="n">
+        <v>7.300089273893946</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>8.65654662004</v>
+      </c>
+      <c r="E729" t="n">
+        <v>94</v>
+      </c>
+      <c r="F729" t="n">
+        <v>-813.7153822837601</v>
+      </c>
+      <c r="G729" t="n">
+        <v>12.98481993006</v>
+      </c>
+      <c r="H729" t="n">
+        <v>8.223719289038</v>
+      </c>
+      <c r="I729" t="n">
+        <v>8.65654662004</v>
+      </c>
+      <c r="J729" t="n">
+        <v>9.015460474771915</v>
+      </c>
+      <c r="K729" t="n">
+        <v>8.512981306338373</v>
+      </c>
       <c r="L729" t="inlineStr"/>
       <c r="M729" t="inlineStr"/>
     </row>
@@ -13139,38 +13345,16 @@
       <c r="A732" s="1" t="n">
         <v>730</v>
       </c>
-      <c r="B732" t="n">
-        <v>1.910611083415461</v>
-      </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D732" t="n">
-        <v>3.555691260492686</v>
-      </c>
-      <c r="E732" t="n">
-        <v>725</v>
-      </c>
-      <c r="F732" t="n">
-        <v>-2577.876163857197</v>
-      </c>
-      <c r="G732" t="n">
-        <v>5.333536890739028</v>
-      </c>
-      <c r="H732" t="n">
-        <v>3.377906697468051</v>
-      </c>
-      <c r="I732" t="n">
-        <v>3.555691260492686</v>
-      </c>
-      <c r="J732" t="n">
-        <v>3.725888781575919</v>
-      </c>
-      <c r="K732" t="n">
-        <v>3.538671528673483</v>
-      </c>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr"/>
+      <c r="H732" t="inlineStr"/>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr"/>
       <c r="M732" t="inlineStr"/>
     </row>
@@ -13433,18 +13617,42 @@
       <c r="A748" s="1" t="n">
         <v>746</v>
       </c>
-      <c r="B748" t="inlineStr"/>
-      <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr"/>
-      <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr"/>
+      <c r="B748" t="n">
+        <v>780.329702443466</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>8.223719289038</v>
+      </c>
+      <c r="E748" t="n">
+        <v>94</v>
+      </c>
+      <c r="F748" t="n">
+        <v>813.7153822837601</v>
+      </c>
       <c r="G748" t="inlineStr"/>
       <c r="H748" t="inlineStr"/>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
-      <c r="M748" t="inlineStr"/>
+      <c r="I748" t="n">
+        <v>8.715380823244672</v>
+      </c>
+      <c r="J748" t="n">
+        <v>8.715380823244672</v>
+      </c>
+      <c r="K748" t="n">
+        <v>8.162287040034839</v>
+      </c>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M748" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -13518,42 +13726,18 @@
       <c r="A753" s="1" t="n">
         <v>751</v>
       </c>
-      <c r="B753" t="n">
-        <v>2855.197674414181</v>
-      </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D753" t="n">
-        <v>3.935568363214849</v>
-      </c>
-      <c r="E753" t="n">
-        <v>725</v>
-      </c>
-      <c r="F753" t="n">
-        <v>2577.876163857197</v>
-      </c>
+      <c r="B753" t="inlineStr"/>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr"/>
+      <c r="E753" t="inlineStr"/>
+      <c r="F753" t="inlineStr"/>
       <c r="G753" t="inlineStr"/>
       <c r="H753" t="inlineStr"/>
-      <c r="I753" t="n">
-        <v>3.817946604636169</v>
-      </c>
-      <c r="J753" t="n">
-        <v>3.935568363214849</v>
-      </c>
-      <c r="K753" t="n">
-        <v>3.797189852821107</v>
-      </c>
-      <c r="L753" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M753" t="n">
-        <v>11</v>
-      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="inlineStr"/>
+      <c r="M753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
@@ -13950,55 +14134,55 @@
       <c r="A777" s="1" t="n">
         <v>775</v>
       </c>
-      <c r="B777" t="n">
-        <v>0.159790431996953</v>
-      </c>
-      <c r="C777" t="inlineStr">
+      <c r="B777" t="inlineStr"/>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr"/>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="inlineStr"/>
+      <c r="H777" t="inlineStr"/>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="inlineStr"/>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>6.502552128958996</v>
+      </c>
+      <c r="C778" t="inlineStr">
         <is>
           <t>COMPRA</t>
         </is>
       </c>
-      <c r="D777" t="n">
-        <v>3.382746308035763</v>
-      </c>
-      <c r="E777" t="n">
-        <v>844</v>
-      </c>
-      <c r="F777" t="n">
-        <v>-2855.037883982184</v>
-      </c>
-      <c r="G777" t="n">
-        <v>5.074119462053644</v>
-      </c>
-      <c r="H777" t="n">
-        <v>3.213608992633974</v>
-      </c>
-      <c r="I777" t="n">
-        <v>3.382746308035763</v>
-      </c>
-      <c r="J777" t="n">
-        <v>3.594119507589497</v>
-      </c>
-      <c r="K777" t="n">
-        <v>3.366486851026811</v>
-      </c>
-      <c r="L777" t="inlineStr"/>
-      <c r="M777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="inlineStr"/>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr"/>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr"/>
-      <c r="G778" t="inlineStr"/>
-      <c r="H778" t="inlineStr"/>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="D778" t="n">
+        <v>8.503595058401176</v>
+      </c>
+      <c r="E778" t="n">
+        <v>91</v>
+      </c>
+      <c r="F778" t="n">
+        <v>-773.827150314507</v>
+      </c>
+      <c r="G778" t="n">
+        <v>12.75539258760177</v>
+      </c>
+      <c r="H778" t="n">
+        <v>8.078415305481117</v>
+      </c>
+      <c r="I778" t="n">
+        <v>8.503595058401176</v>
+      </c>
+      <c r="J778" t="n">
+        <v>9.455962861907974</v>
+      </c>
+      <c r="K778" t="n">
+        <v>8.414311419435515</v>
+      </c>
       <c r="L778" t="inlineStr"/>
       <c r="M778" t="inlineStr"/>
     </row>
@@ -14176,42 +14360,18 @@
       <c r="A789" s="1" t="n">
         <v>787</v>
       </c>
-      <c r="B789" t="n">
-        <v>2712.445780215071</v>
-      </c>
-      <c r="C789" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D789" t="n">
-        <v>3.213608992633974</v>
-      </c>
-      <c r="E789" t="n">
-        <v>844</v>
-      </c>
-      <c r="F789" t="n">
-        <v>2855.037883982184</v>
-      </c>
+      <c r="B789" t="inlineStr"/>
+      <c r="C789" t="inlineStr"/>
+      <c r="D789" t="inlineStr"/>
+      <c r="E789" t="inlineStr"/>
+      <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr"/>
       <c r="H789" t="inlineStr"/>
-      <c r="I789" t="n">
-        <v>3.225680311292701</v>
-      </c>
-      <c r="J789" t="n">
-        <v>3.243280964042035</v>
-      </c>
-      <c r="K789" t="n">
-        <v>3.178745610298325</v>
-      </c>
-      <c r="L789" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M789" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
+      <c r="L789" t="inlineStr"/>
+      <c r="M789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
@@ -14370,18 +14530,42 @@
       <c r="A799" s="1" t="n">
         <v>797</v>
       </c>
-      <c r="B799" t="inlineStr"/>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
+      <c r="B799" t="n">
+        <v>933.2185744735395</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>10.18369255323715</v>
+      </c>
+      <c r="E799" t="n">
+        <v>91</v>
+      </c>
+      <c r="F799" t="n">
+        <v>773.827150314507</v>
+      </c>
       <c r="G799" t="inlineStr"/>
       <c r="H799" t="inlineStr"/>
-      <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr"/>
-      <c r="M799" t="inlineStr"/>
+      <c r="I799" t="n">
+        <v>9.743385753943718</v>
+      </c>
+      <c r="J799" t="n">
+        <v>10.19999980926514</v>
+      </c>
+      <c r="K799" t="n">
+        <v>9.629231851308443</v>
+      </c>
+      <c r="L799" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M799" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
@@ -14455,38 +14639,16 @@
       <c r="A804" s="1" t="n">
         <v>802</v>
       </c>
-      <c r="B804" t="n">
-        <v>1.047308642167081</v>
-      </c>
-      <c r="C804" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D804" t="n">
-        <v>3.306583501918176</v>
-      </c>
-      <c r="E804" t="n">
-        <v>820</v>
-      </c>
-      <c r="F804" t="n">
-        <v>-2711.398471572904</v>
-      </c>
-      <c r="G804" t="n">
-        <v>4.959875252877264</v>
-      </c>
-      <c r="H804" t="n">
-        <v>3.141254326822267</v>
-      </c>
-      <c r="I804" t="n">
-        <v>3.306583501918176</v>
-      </c>
-      <c r="J804" t="n">
-        <v>3.370765721186028</v>
-      </c>
-      <c r="K804" t="n">
-        <v>3.300165295293603</v>
-      </c>
+      <c r="B804" t="inlineStr"/>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr"/>
+      <c r="E804" t="inlineStr"/>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr"/>
+      <c r="H804" t="inlineStr"/>
+      <c r="I804" t="inlineStr"/>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="inlineStr"/>
       <c r="M804" t="inlineStr"/>
     </row>
@@ -14630,42 +14792,18 @@
       <c r="A813" s="1" t="n">
         <v>811</v>
       </c>
-      <c r="B813" t="n">
-        <v>2576.875856636426</v>
-      </c>
-      <c r="C813" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D813" t="n">
-        <v>3.141254326822267</v>
-      </c>
-      <c r="E813" t="n">
-        <v>820</v>
-      </c>
-      <c r="F813" t="n">
-        <v>2711.398471572904</v>
-      </c>
+      <c r="B813" t="inlineStr"/>
+      <c r="C813" t="inlineStr"/>
+      <c r="D813" t="inlineStr"/>
+      <c r="E813" t="inlineStr"/>
+      <c r="F813" t="inlineStr"/>
       <c r="G813" t="inlineStr"/>
       <c r="H813" t="inlineStr"/>
-      <c r="I813" t="n">
-        <v>3.178219369426706</v>
-      </c>
-      <c r="J813" t="n">
-        <v>3.178219369426706</v>
-      </c>
-      <c r="K813" t="n">
-        <v>3.101200736909707</v>
-      </c>
-      <c r="L813" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M813" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
+      <c r="M813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
@@ -15402,38 +15540,16 @@
       <c r="A857" s="1" t="n">
         <v>855</v>
       </c>
-      <c r="B857" t="n">
-        <v>0.05864532784789844</v>
-      </c>
-      <c r="C857" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D857" t="n">
-        <v>3.249454238724562</v>
-      </c>
-      <c r="E857" t="n">
-        <v>793</v>
-      </c>
-      <c r="F857" t="n">
-        <v>-2576.817211308578</v>
-      </c>
-      <c r="G857" t="n">
-        <v>4.874181358086844</v>
-      </c>
-      <c r="H857" t="n">
-        <v>3.086981526788334</v>
-      </c>
-      <c r="I857" t="n">
-        <v>3.249454238724562</v>
-      </c>
-      <c r="J857" t="n">
-        <v>3.431703354960514</v>
-      </c>
-      <c r="K857" t="n">
-        <v>3.228013196296496</v>
-      </c>
+      <c r="B857" t="inlineStr"/>
+      <c r="C857" t="inlineStr"/>
+      <c r="D857" t="inlineStr"/>
+      <c r="E857" t="inlineStr"/>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr"/>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="inlineStr"/>
       <c r="M857" t="inlineStr"/>
     </row>
@@ -15781,42 +15897,18 @@
       <c r="A878" s="1" t="n">
         <v>876</v>
       </c>
-      <c r="B878" t="n">
-        <v>3002.645034598719</v>
-      </c>
-      <c r="C878" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D878" t="n">
-        <v>3.786363668689623</v>
-      </c>
-      <c r="E878" t="n">
-        <v>793</v>
-      </c>
-      <c r="F878" t="n">
-        <v>2576.817211308578</v>
-      </c>
+      <c r="B878" t="inlineStr"/>
+      <c r="C878" t="inlineStr"/>
+      <c r="D878" t="inlineStr"/>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr"/>
       <c r="H878" t="inlineStr"/>
-      <c r="I878" t="n">
-        <v>3.912613836924743</v>
-      </c>
-      <c r="J878" t="n">
-        <v>3.935568363214849</v>
-      </c>
-      <c r="K878" t="n">
-        <v>3.751931879254465</v>
-      </c>
-      <c r="L878" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M878" t="n">
-        <v>17</v>
-      </c>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="inlineStr"/>
+      <c r="M878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" s="1" t="n">
@@ -17301,38 +17393,16 @@
       <c r="A966" s="1" t="n">
         <v>964</v>
       </c>
-      <c r="B966" t="n">
-        <v>3.079380334181224</v>
-      </c>
-      <c r="C966" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D966" t="n">
-        <v>3.537223648896861</v>
-      </c>
-      <c r="E966" t="n">
-        <v>848</v>
-      </c>
-      <c r="F966" t="n">
-        <v>-2999.565654264538</v>
-      </c>
-      <c r="G966" t="n">
-        <v>5.305835473345291</v>
-      </c>
-      <c r="H966" t="n">
-        <v>3.360362466452017</v>
-      </c>
-      <c r="I966" t="n">
-        <v>3.537223648896861</v>
-      </c>
-      <c r="J966" t="n">
-        <v>3.691837230160926</v>
-      </c>
-      <c r="K966" t="n">
-        <v>3.537223648896861</v>
-      </c>
+      <c r="B966" t="inlineStr"/>
+      <c r="C966" t="inlineStr"/>
+      <c r="D966" t="inlineStr"/>
+      <c r="E966" t="inlineStr"/>
+      <c r="F966" t="inlineStr"/>
+      <c r="G966" t="inlineStr"/>
+      <c r="H966" t="inlineStr"/>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="inlineStr"/>
       <c r="M966" t="inlineStr"/>
     </row>
@@ -17680,42 +17750,18 @@
       <c r="A987" s="1" t="n">
         <v>985</v>
       </c>
-      <c r="B987" t="n">
-        <v>3016.904590405425</v>
-      </c>
-      <c r="C987" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D987" t="n">
-        <v>3.554039162819863</v>
-      </c>
-      <c r="E987" t="n">
-        <v>848</v>
-      </c>
-      <c r="F987" t="n">
-        <v>2999.565654264538</v>
-      </c>
+      <c r="B987" t="inlineStr"/>
+      <c r="C987" t="inlineStr"/>
+      <c r="D987" t="inlineStr"/>
+      <c r="E987" t="inlineStr"/>
+      <c r="F987" t="inlineStr"/>
       <c r="G987" t="inlineStr"/>
       <c r="H987" t="inlineStr"/>
-      <c r="I987" t="n">
-        <v>3.632497089830073</v>
-      </c>
-      <c r="J987" t="n">
-        <v>3.632497089830073</v>
-      </c>
-      <c r="K987" t="n">
-        <v>3.531622612245517</v>
-      </c>
-      <c r="L987" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M987" t="n">
-        <v>0</v>
-      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="inlineStr"/>
+      <c r="M987" t="inlineStr"/>
     </row>
     <row r="988">
       <c r="A988" s="1" t="n">
@@ -17976,38 +18022,16 @@
       <c r="A1003" s="1" t="n">
         <v>1001</v>
       </c>
-      <c r="B1003" t="n">
-        <v>0.7226273410028625</v>
-      </c>
-      <c r="C1003" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1003" t="n">
-        <v>3.556818352670309</v>
-      </c>
-      <c r="E1003" t="n">
-        <v>848</v>
-      </c>
-      <c r="F1003" t="n">
-        <v>-3016.181963064422</v>
-      </c>
-      <c r="G1003" t="n">
-        <v>5.335227529005464</v>
-      </c>
-      <c r="H1003" t="n">
-        <v>3.378977435036794</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>3.556818352670309</v>
-      </c>
-      <c r="J1003" t="n">
-        <v>3.69454552972666</v>
-      </c>
-      <c r="K1003" t="n">
-        <v>3.533863823160918</v>
-      </c>
+      <c r="B1003" t="inlineStr"/>
+      <c r="C1003" t="inlineStr"/>
+      <c r="D1003" t="inlineStr"/>
+      <c r="E1003" t="inlineStr"/>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="inlineStr"/>
+      <c r="H1003" t="inlineStr"/>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="inlineStr"/>
       <c r="M1003" t="inlineStr"/>
     </row>
@@ -18032,16 +18056,38 @@
       <c r="A1005" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="B1005" t="inlineStr"/>
-      <c r="C1005" t="inlineStr"/>
-      <c r="D1005" t="inlineStr"/>
-      <c r="E1005" t="inlineStr"/>
-      <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr"/>
-      <c r="H1005" t="inlineStr"/>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+      <c r="B1005" t="n">
+        <v>3.015366119667419</v>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>8.61299266994326</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>-930.2032083538721</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>12.91948900491489</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>8.182343036446097</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>8.61299266994326</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>9.293487866779659</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>8.556284793207828</v>
+      </c>
       <c r="L1005" t="inlineStr"/>
       <c r="M1005" t="inlineStr"/>
     </row>
@@ -18100,42 +18146,18 @@
       <c r="A1009" s="1" t="n">
         <v>1007</v>
       </c>
-      <c r="B1009" t="n">
-        <v>2866.095492252204</v>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1009" t="n">
-        <v>3.378977435036794</v>
-      </c>
-      <c r="E1009" t="n">
-        <v>848</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>3016.181963064422</v>
-      </c>
+      <c r="B1009" t="inlineStr"/>
+      <c r="C1009" t="inlineStr"/>
+      <c r="D1009" t="inlineStr"/>
+      <c r="E1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr"/>
       <c r="G1009" t="inlineStr"/>
       <c r="H1009" t="inlineStr"/>
-      <c r="I1009" t="n">
-        <v>3.419090901974382</v>
-      </c>
-      <c r="J1009" t="n">
-        <v>3.419090901974382</v>
-      </c>
-      <c r="K1009" t="n">
-        <v>3.350227313446207</v>
-      </c>
-      <c r="L1009" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M1009" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I1009" t="inlineStr"/>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr"/>
+      <c r="M1009" t="inlineStr"/>
     </row>
     <row r="1010">
       <c r="A1010" s="1" t="n">
@@ -18277,18 +18299,42 @@
       <c r="A1018" s="1" t="n">
         <v>1016</v>
       </c>
-      <c r="B1018" t="inlineStr"/>
-      <c r="C1018" t="inlineStr"/>
-      <c r="D1018" t="inlineStr"/>
-      <c r="E1018" t="inlineStr"/>
-      <c r="F1018" t="inlineStr"/>
+      <c r="B1018" t="n">
+        <v>886.7084140558459</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1018" t="n">
+        <v>8.182343036446097</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>108</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>930.2032083538721</v>
+      </c>
       <c r="G1018" t="inlineStr"/>
       <c r="H1018" t="inlineStr"/>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
-      <c r="L1018" t="inlineStr"/>
-      <c r="M1018" t="inlineStr"/>
+      <c r="I1018" t="n">
+        <v>8.617369292195702</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>8.671797498778893</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>8.109367795068346</v>
+      </c>
+      <c r="L1018" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1018" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="1" t="n">
@@ -18991,16 +19037,38 @@
       <c r="A1060" s="1" t="n">
         <v>1058</v>
       </c>
-      <c r="B1060" t="inlineStr"/>
-      <c r="C1060" t="inlineStr"/>
-      <c r="D1060" t="inlineStr"/>
-      <c r="E1060" t="inlineStr"/>
-      <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr"/>
-      <c r="H1060" t="inlineStr"/>
-      <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="B1060" t="n">
+        <v>7.303884395878413</v>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1060" t="n">
+        <v>9.455962684515779</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>-879.4045296599675</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>14.18394402677367</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>8.98316455028999</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>9.455962684515779</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>9.455962684515779</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>9.190235248569907</v>
+      </c>
       <c r="L1060" t="inlineStr"/>
       <c r="M1060" t="inlineStr"/>
     </row>
@@ -19042,18 +19110,42 @@
       <c r="A1063" s="1" t="n">
         <v>1061</v>
       </c>
-      <c r="B1063" t="inlineStr"/>
-      <c r="C1063" t="inlineStr"/>
-      <c r="D1063" t="inlineStr"/>
-      <c r="E1063" t="inlineStr"/>
-      <c r="F1063" t="inlineStr"/>
+      <c r="B1063" t="n">
+        <v>842.7381875728474</v>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1063" t="n">
+        <v>8.98316455028999</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>879.4045296599675</v>
+      </c>
       <c r="G1063" t="inlineStr"/>
       <c r="H1063" t="inlineStr"/>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
-      <c r="L1063" t="inlineStr"/>
-      <c r="M1063" t="inlineStr"/>
+      <c r="I1063" t="n">
+        <v>9.0945737162771</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>9.158348240083924</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>8.892620804138053</v>
+      </c>
+      <c r="L1063" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1063" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="1" t="n">
@@ -19076,16 +19168,38 @@
       <c r="A1065" s="1" t="n">
         <v>1063</v>
       </c>
-      <c r="B1065" t="inlineStr"/>
-      <c r="C1065" t="inlineStr"/>
-      <c r="D1065" t="inlineStr"/>
-      <c r="E1065" t="inlineStr"/>
-      <c r="F1065" t="inlineStr"/>
-      <c r="G1065" t="inlineStr"/>
-      <c r="H1065" t="inlineStr"/>
-      <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="B1065" t="n">
+        <v>5.059552958053246</v>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1065" t="n">
+        <v>9.105202550160806</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>-837.6786346147942</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>13.65780382524121</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>8.649942422652765</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>9.105202550160806</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>9.1796064146862</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>9.020169851751705</v>
+      </c>
       <c r="L1065" t="inlineStr"/>
       <c r="M1065" t="inlineStr"/>
     </row>
@@ -19212,18 +19326,42 @@
       <c r="A1073" s="1" t="n">
         <v>1071</v>
       </c>
-      <c r="B1073" t="inlineStr"/>
-      <c r="C1073" t="inlineStr"/>
-      <c r="D1073" t="inlineStr"/>
-      <c r="E1073" t="inlineStr"/>
-      <c r="F1073" t="inlineStr"/>
+      <c r="B1073" t="n">
+        <v>800.8542558421077</v>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1073" t="n">
+        <v>8.649942422652765</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>837.6786346147942</v>
+      </c>
       <c r="G1073" t="inlineStr"/>
       <c r="H1073" t="inlineStr"/>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
-      <c r="L1073" t="inlineStr"/>
-      <c r="M1073" t="inlineStr"/>
+      <c r="I1073" t="n">
+        <v>8.86073328881721</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>8.924507812624036</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>8.563118844385356</v>
+      </c>
+      <c r="L1073" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1073" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="1" t="n">
@@ -19314,16 +19452,38 @@
       <c r="A1079" s="1" t="n">
         <v>1077</v>
       </c>
-      <c r="B1079" t="inlineStr"/>
-      <c r="C1079" t="inlineStr"/>
-      <c r="D1079" t="inlineStr"/>
-      <c r="E1079" t="inlineStr"/>
-      <c r="F1079" t="inlineStr"/>
-      <c r="G1079" t="inlineStr"/>
-      <c r="H1079" t="inlineStr"/>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="B1079" t="n">
+        <v>7.360527379824475</v>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1079" t="n">
+        <v>9.120617568531991</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>-793.4937284622832</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>13.68092635279799</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>8.664586690105391</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>9.120617568531991</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>9.316423914729659</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>9.01695525602222</v>
+      </c>
       <c r="L1079" t="inlineStr"/>
       <c r="M1079" t="inlineStr"/>
     </row>
@@ -19416,18 +19576,42 @@
       <c r="A1085" s="1" t="n">
         <v>1083</v>
       </c>
-      <c r="B1085" t="inlineStr"/>
-      <c r="C1085" t="inlineStr"/>
-      <c r="D1085" t="inlineStr"/>
-      <c r="E1085" t="inlineStr"/>
-      <c r="F1085" t="inlineStr"/>
+      <c r="B1085" t="n">
+        <v>761.1795694189935</v>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>8.664586690105391</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>793.4937284622832</v>
+      </c>
       <c r="G1085" t="inlineStr"/>
       <c r="H1085" t="inlineStr"/>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
-      <c r="L1085" t="inlineStr"/>
-      <c r="M1085" t="inlineStr"/>
+      <c r="I1085" t="n">
+        <v>8.98447879269532</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>9.0095410632164</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>8.49576362123679</v>
+      </c>
+      <c r="L1085" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1085" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1086">
       <c r="A1086" s="1" t="n">
@@ -19484,16 +19668,38 @@
       <c r="A1089" s="1" t="n">
         <v>1087</v>
       </c>
-      <c r="B1089" t="inlineStr"/>
-      <c r="C1089" t="inlineStr"/>
-      <c r="D1089" t="inlineStr"/>
-      <c r="E1089" t="inlineStr"/>
-      <c r="F1089" t="inlineStr"/>
-      <c r="G1089" t="inlineStr"/>
-      <c r="H1089" t="inlineStr"/>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="B1089" t="n">
+        <v>0.9560846153544844</v>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1089" t="n">
+        <v>9.385475121032581</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>-760.2234848036391</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>14.07821268154887</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>8.916201364980951</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>9.385475121032581</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>9.986970211070137</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>9.360412850511503</v>
+      </c>
       <c r="L1089" t="inlineStr"/>
       <c r="M1089" t="inlineStr"/>
     </row>
@@ -19773,38 +19979,16 @@
       <c r="A1106" s="1" t="n">
         <v>1104</v>
       </c>
-      <c r="B1106" t="n">
-        <v>0.0004941483343827713</v>
-      </c>
-      <c r="C1106" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1106" t="n">
-        <v>3.508072213101431</v>
-      </c>
-      <c r="E1106" t="n">
-        <v>817</v>
-      </c>
-      <c r="F1106" t="n">
-        <v>-2866.094998103869</v>
-      </c>
-      <c r="G1106" t="n">
-        <v>5.262108319652146</v>
-      </c>
-      <c r="H1106" t="n">
-        <v>3.332668602446359</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>3.508072213101431</v>
-      </c>
-      <c r="J1106" t="n">
-        <v>3.606725110510409</v>
-      </c>
-      <c r="K1106" t="n">
-        <v>3.44230348415819</v>
-      </c>
+      <c r="B1106" t="inlineStr"/>
+      <c r="C1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr"/>
+      <c r="E1106" t="inlineStr"/>
+      <c r="F1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr"/>
+      <c r="H1106" t="inlineStr"/>
+      <c r="I1106" t="inlineStr"/>
+      <c r="J1106" t="inlineStr"/>
+      <c r="K1106" t="inlineStr"/>
       <c r="L1106" t="inlineStr"/>
       <c r="M1106" t="inlineStr"/>
     </row>
@@ -19863,18 +20047,42 @@
       <c r="A1110" s="1" t="n">
         <v>1108</v>
       </c>
-      <c r="B1110" t="inlineStr"/>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr"/>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr"/>
+      <c r="B1110" t="n">
+        <v>787.1817643155852</v>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1110" t="n">
+        <v>9.706489872842354</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>760.2234848036391</v>
+      </c>
       <c r="G1110" t="inlineStr"/>
       <c r="H1110" t="inlineStr"/>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
-      <c r="L1110" t="inlineStr"/>
-      <c r="M1110" t="inlineStr"/>
+      <c r="I1110" t="n">
+        <v>9.837299756004233</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>9.843245788658155</v>
+      </c>
+      <c r="K1110" t="n">
+        <v>9.670814811008587</v>
+      </c>
+      <c r="L1110" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M1110" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1111">
       <c r="A1111" s="1" t="n">
@@ -20101,42 +20309,18 @@
       <c r="A1124" s="1" t="n">
         <v>1122</v>
       </c>
-      <c r="B1124" t="n">
-        <v>2722.79074234701</v>
-      </c>
-      <c r="C1124" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1124" t="n">
-        <v>3.332668602446359</v>
-      </c>
-      <c r="E1124" t="n">
-        <v>817</v>
-      </c>
-      <c r="F1124" t="n">
-        <v>2866.094998103869</v>
-      </c>
+      <c r="B1124" t="inlineStr"/>
+      <c r="C1124" t="inlineStr"/>
+      <c r="D1124" t="inlineStr"/>
+      <c r="E1124" t="inlineStr"/>
+      <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr"/>
       <c r="H1124" t="inlineStr"/>
-      <c r="I1124" t="n">
-        <v>3.395892197423258</v>
-      </c>
-      <c r="J1124" t="n">
-        <v>3.427027325145849</v>
-      </c>
-      <c r="K1124" t="n">
-        <v>3.302486690535482</v>
-      </c>
-      <c r="L1124" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M1124" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I1124" t="inlineStr"/>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="inlineStr"/>
+      <c r="M1124" t="inlineStr"/>
     </row>
     <row r="1125">
       <c r="A1125" s="1" t="n">
@@ -20822,16 +21006,38 @@
       <c r="A1165" s="1" t="n">
         <v>1163</v>
       </c>
-      <c r="B1165" t="inlineStr"/>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr"/>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
-      <c r="H1165" t="inlineStr"/>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+      <c r="B1165" t="n">
+        <v>4.839752617246859</v>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1165" t="n">
+        <v>8.412279695681057</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>-782.3420116983383</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>12.61841954352159</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>7.991665710897005</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>8.412279695681057</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>8.550421748489583</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>8.387901526812204</v>
+      </c>
       <c r="L1165" t="inlineStr"/>
       <c r="M1165" t="inlineStr"/>
     </row>
@@ -21111,38 +21317,16 @@
       <c r="A1182" s="1" t="n">
         <v>1180</v>
       </c>
-      <c r="B1182" t="n">
-        <v>1.389513093691221</v>
-      </c>
-      <c r="C1182" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1182" t="n">
-        <v>3.22823396115459</v>
-      </c>
-      <c r="E1182" t="n">
-        <v>843</v>
-      </c>
-      <c r="F1182" t="n">
-        <v>-2721.401229253319</v>
-      </c>
-      <c r="G1182" t="n">
-        <v>4.842350941731884</v>
-      </c>
-      <c r="H1182" t="n">
-        <v>3.06682226309686</v>
-      </c>
-      <c r="I1182" t="n">
-        <v>3.22823396115459</v>
-      </c>
-      <c r="J1182" t="n">
-        <v>3.317645313234871</v>
-      </c>
-      <c r="K1182" t="n">
-        <v>3.205881156442826</v>
-      </c>
+      <c r="B1182" t="inlineStr"/>
+      <c r="C1182" t="inlineStr"/>
+      <c r="D1182" t="inlineStr"/>
+      <c r="E1182" t="inlineStr"/>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="inlineStr"/>
+      <c r="H1182" t="inlineStr"/>
+      <c r="I1182" t="inlineStr"/>
+      <c r="J1182" t="inlineStr"/>
+      <c r="K1182" t="inlineStr"/>
       <c r="L1182" t="inlineStr"/>
       <c r="M1182" t="inlineStr"/>
     </row>
@@ -21201,18 +21385,42 @@
       <c r="A1186" s="1" t="n">
         <v>1184</v>
       </c>
-      <c r="B1186" t="inlineStr"/>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
+      <c r="B1186" t="n">
+        <v>887.552173795449</v>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1186" t="n">
+        <v>9.491531410518302</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>782.3420116983383</v>
+      </c>
       <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr"/>
-      <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
-      <c r="L1186" t="inlineStr"/>
-      <c r="M1186" t="inlineStr"/>
+      <c r="I1186" t="n">
+        <v>9.921257363403372</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>9.944486362066693</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>9.445074520811279</v>
+      </c>
+      <c r="L1186" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M1186" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="1" t="n">
@@ -21490,42 +21698,18 @@
       <c r="A1203" s="1" t="n">
         <v>1201</v>
       </c>
-      <c r="B1203" t="n">
-        <v>2973.575050307651</v>
-      </c>
-      <c r="C1203" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1203" t="n">
-        <v>3.52572424343293</v>
-      </c>
-      <c r="E1203" t="n">
-        <v>843</v>
-      </c>
-      <c r="F1203" t="n">
-        <v>2721.401229253319</v>
-      </c>
+      <c r="B1203" t="inlineStr"/>
+      <c r="C1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr"/>
+      <c r="E1203" t="inlineStr"/>
+      <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr"/>
-      <c r="I1203" t="n">
-        <v>3.52572424343293</v>
-      </c>
-      <c r="J1203" t="n">
-        <v>3.562222537151961</v>
-      </c>
-      <c r="K1203" t="n">
-        <v>3.489225732166908</v>
-      </c>
-      <c r="L1203" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M1203" t="n">
-        <v>9</v>
-      </c>
+      <c r="I1203" t="inlineStr"/>
+      <c r="J1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr"/>
+      <c r="L1203" t="inlineStr"/>
+      <c r="M1203" t="inlineStr"/>
     </row>
     <row r="1204">
       <c r="A1204" s="1" t="n">
@@ -22823,16 +23007,38 @@
       <c r="A1280" s="1" t="n">
         <v>1278</v>
       </c>
-      <c r="B1280" t="inlineStr"/>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-      <c r="H1280" t="inlineStr"/>
-      <c r="I1280" t="inlineStr"/>
-      <c r="J1280" t="inlineStr"/>
-      <c r="K1280" t="inlineStr"/>
+      <c r="B1280" t="n">
+        <v>2.997862341622863</v>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1280" t="n">
+        <v>9.214107410977356</v>
+      </c>
+      <c r="E1280" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1280" t="n">
+        <v>-884.5543114538261</v>
+      </c>
+      <c r="G1280" t="n">
+        <v>13.82116111646603</v>
+      </c>
+      <c r="H1280" t="n">
+        <v>8.753402040428487</v>
+      </c>
+      <c r="I1280" t="n">
+        <v>9.214107410977356</v>
+      </c>
+      <c r="J1280" t="n">
+        <v>9.391509350875268</v>
+      </c>
+      <c r="K1280" t="n">
+        <v>9.197979961895728</v>
+      </c>
       <c r="L1280" t="inlineStr"/>
       <c r="M1280" t="inlineStr"/>
     </row>
@@ -22976,33 +23182,79 @@
       <c r="A1289" s="1" t="n">
         <v>1287</v>
       </c>
-      <c r="B1289" t="inlineStr"/>
-      <c r="C1289" t="inlineStr"/>
-      <c r="D1289" t="inlineStr"/>
-      <c r="E1289" t="inlineStr"/>
-      <c r="F1289" t="inlineStr"/>
+      <c r="B1289" t="n">
+        <v>843.3244582227576</v>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1289" t="n">
+        <v>8.753402040428487</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>96</v>
+      </c>
+      <c r="F1289" t="n">
+        <v>884.5543114538261</v>
+      </c>
       <c r="G1289" t="inlineStr"/>
       <c r="H1289" t="inlineStr"/>
-      <c r="I1289" t="inlineStr"/>
-      <c r="J1289" t="inlineStr"/>
-      <c r="K1289" t="inlineStr"/>
-      <c r="L1289" t="inlineStr"/>
-      <c r="M1289" t="inlineStr"/>
+      <c r="I1289" t="n">
+        <v>8.875430595754445</v>
+      </c>
+      <c r="J1289" t="n">
+        <v>8.956067841162586</v>
+      </c>
+      <c r="K1289" t="n">
+        <v>8.746410618592702</v>
+      </c>
+      <c r="L1289" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1289" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1290">
       <c r="A1290" s="1" t="n">
         <v>1288</v>
       </c>
-      <c r="B1290" t="inlineStr"/>
-      <c r="C1290" t="inlineStr"/>
-      <c r="D1290" t="inlineStr"/>
-      <c r="E1290" t="inlineStr"/>
-      <c r="F1290" t="inlineStr"/>
-      <c r="G1290" t="inlineStr"/>
-      <c r="H1290" t="inlineStr"/>
-      <c r="I1290" t="inlineStr"/>
-      <c r="J1290" t="inlineStr"/>
-      <c r="K1290" t="inlineStr"/>
+      <c r="B1290" t="n">
+        <v>7.410443465454136</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1290" t="n">
+        <v>8.988322739325843</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1290" t="n">
+        <v>-835.9140147573034</v>
+      </c>
+      <c r="G1290" t="n">
+        <v>13.48248410898876</v>
+      </c>
+      <c r="H1290" t="n">
+        <v>8.538906602359551</v>
+      </c>
+      <c r="I1290" t="n">
+        <v>8.988322739325843</v>
+      </c>
+      <c r="J1290" t="n">
+        <v>9.181852128305383</v>
+      </c>
+      <c r="K1290" t="n">
+        <v>8.956067841162586</v>
+      </c>
       <c r="L1290" t="inlineStr"/>
       <c r="M1290" t="inlineStr"/>
     </row>
@@ -23095,38 +23347,16 @@
       <c r="A1296" s="1" t="n">
         <v>1294</v>
       </c>
-      <c r="B1296" t="n">
-        <v>2.398882422410679</v>
-      </c>
-      <c r="C1296" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1296" t="n">
-        <v>3.491393851804043</v>
-      </c>
-      <c r="E1296" t="n">
-        <v>851</v>
-      </c>
-      <c r="F1296" t="n">
-        <v>-2971.17616788524</v>
-      </c>
-      <c r="G1296" t="n">
-        <v>5.237090777706064</v>
-      </c>
-      <c r="H1296" t="n">
-        <v>3.31682415921384</v>
-      </c>
-      <c r="I1296" t="n">
-        <v>3.491393851804043</v>
-      </c>
-      <c r="J1296" t="n">
-        <v>3.54121218267662</v>
-      </c>
-      <c r="K1296" t="n">
-        <v>3.44157571889113</v>
-      </c>
+      <c r="B1296" t="inlineStr"/>
+      <c r="C1296" t="inlineStr"/>
+      <c r="D1296" t="inlineStr"/>
+      <c r="E1296" t="inlineStr"/>
+      <c r="F1296" t="inlineStr"/>
+      <c r="G1296" t="inlineStr"/>
+      <c r="H1296" t="inlineStr"/>
+      <c r="I1296" t="inlineStr"/>
+      <c r="J1296" t="inlineStr"/>
+      <c r="K1296" t="inlineStr"/>
       <c r="L1296" t="inlineStr"/>
       <c r="M1296" t="inlineStr"/>
     </row>
@@ -23287,42 +23517,18 @@
       <c r="A1306" s="1" t="n">
         <v>1304</v>
       </c>
-      <c r="B1306" t="n">
-        <v>2825.016241913389</v>
-      </c>
-      <c r="C1306" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1306" t="n">
-        <v>3.31682415921384</v>
-      </c>
-      <c r="E1306" t="n">
-        <v>851</v>
-      </c>
-      <c r="F1306" t="n">
-        <v>2971.17616788524</v>
-      </c>
+      <c r="B1306" t="inlineStr"/>
+      <c r="C1306" t="inlineStr"/>
+      <c r="D1306" t="inlineStr"/>
+      <c r="E1306" t="inlineStr"/>
+      <c r="F1306" t="inlineStr"/>
       <c r="G1306" t="inlineStr"/>
       <c r="H1306" t="inlineStr"/>
-      <c r="I1306" t="n">
-        <v>3.427459880765747</v>
-      </c>
-      <c r="J1306" t="n">
-        <v>3.427459880765747</v>
-      </c>
-      <c r="K1306" t="n">
-        <v>3.30551371898976</v>
-      </c>
-      <c r="L1306" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M1306" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I1306" t="inlineStr"/>
+      <c r="J1306" t="inlineStr"/>
+      <c r="K1306" t="inlineStr"/>
+      <c r="L1306" t="inlineStr"/>
+      <c r="M1306" t="inlineStr"/>
     </row>
     <row r="1307">
       <c r="A1307" s="1" t="n">
@@ -23396,18 +23602,42 @@
       <c r="A1311" s="1" t="n">
         <v>1309</v>
       </c>
-      <c r="B1311" t="inlineStr"/>
-      <c r="C1311" t="inlineStr"/>
-      <c r="D1311" t="inlineStr"/>
-      <c r="E1311" t="inlineStr"/>
-      <c r="F1311" t="inlineStr"/>
+      <c r="B1311" t="n">
+        <v>896.8441065613861</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1311" t="n">
+        <v>9.563802828988516</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>93</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>835.9140147573034</v>
+      </c>
       <c r="G1311" t="inlineStr"/>
       <c r="H1311" t="inlineStr"/>
-      <c r="I1311" t="inlineStr"/>
-      <c r="J1311" t="inlineStr"/>
-      <c r="K1311" t="inlineStr"/>
-      <c r="L1311" t="inlineStr"/>
-      <c r="M1311" t="inlineStr"/>
+      <c r="I1311" t="n">
+        <v>9.486688154928249</v>
+      </c>
+      <c r="J1311" t="n">
+        <v>9.679474840078912</v>
+      </c>
+      <c r="K1311" t="n">
+        <v>9.409573021228269</v>
+      </c>
+      <c r="L1311" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M1311" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" s="1" t="n">
@@ -23770,16 +24000,38 @@
       <c r="A1333" s="1" t="n">
         <v>1331</v>
       </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-      <c r="J1333" t="inlineStr"/>
-      <c r="K1333" t="inlineStr"/>
+      <c r="B1333" t="n">
+        <v>2.794667252863633</v>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1333" t="n">
+        <v>9.411046729563393</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>95</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>-894.0494393085224</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>14.11657009434509</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>8.940494393085224</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>9.411046729563393</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>9.692043773330594</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>9.248933090108858</v>
+      </c>
       <c r="L1333" t="inlineStr"/>
       <c r="M1333" t="inlineStr"/>
     </row>
@@ -23804,38 +24056,16 @@
       <c r="A1335" s="1" t="n">
         <v>1333</v>
       </c>
-      <c r="B1335" t="n">
-        <v>0.02777038568910939</v>
-      </c>
-      <c r="C1335" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1335" t="n">
-        <v>3.375135569328196</v>
-      </c>
-      <c r="E1335" t="n">
-        <v>837</v>
-      </c>
-      <c r="F1335" t="n">
-        <v>-2824.9884715277</v>
-      </c>
-      <c r="G1335" t="n">
-        <v>5.062703353992294</v>
-      </c>
-      <c r="H1335" t="n">
-        <v>3.206378790861786</v>
-      </c>
-      <c r="I1335" t="n">
-        <v>3.375135569328196</v>
-      </c>
-      <c r="J1335" t="n">
-        <v>3.520432832033625</v>
-      </c>
-      <c r="K1335" t="n">
-        <v>3.333621818258074</v>
-      </c>
+      <c r="B1335" t="inlineStr"/>
+      <c r="C1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr"/>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="inlineStr"/>
+      <c r="H1335" t="inlineStr"/>
+      <c r="I1335" t="inlineStr"/>
+      <c r="J1335" t="inlineStr"/>
+      <c r="K1335" t="inlineStr"/>
       <c r="L1335" t="inlineStr"/>
       <c r="M1335" t="inlineStr"/>
     </row>
@@ -23929,7 +24159,7 @@
         <v>1339</v>
       </c>
       <c r="B1341" t="n">
-        <v>2683.766818337004</v>
+        <v>852.1416345959599</v>
       </c>
       <c r="C1341" t="inlineStr">
         <is>
@@ -23937,24 +24167,24 @@
         </is>
       </c>
       <c r="D1341" t="n">
-        <v>3.206378790861786</v>
+        <v>8.940494393085224</v>
       </c>
       <c r="E1341" t="n">
-        <v>837</v>
+        <v>95</v>
       </c>
       <c r="F1341" t="n">
-        <v>2824.9884715277</v>
+        <v>894.0494393085224</v>
       </c>
       <c r="G1341" t="inlineStr"/>
       <c r="H1341" t="inlineStr"/>
       <c r="I1341" t="n">
-        <v>3.416649072958319</v>
+        <v>9.048959330656107</v>
       </c>
       <c r="J1341" t="n">
-        <v>3.416649072958319</v>
+        <v>9.23817115514213</v>
       </c>
       <c r="K1341" t="n">
-        <v>3.126054300107462</v>
+        <v>8.607465073522054</v>
       </c>
       <c r="L1341" t="inlineStr">
         <is>
@@ -23986,38 +24216,16 @@
       <c r="A1343" s="1" t="n">
         <v>1341</v>
       </c>
-      <c r="B1343" t="n">
-        <v>2.385867117228827</v>
-      </c>
-      <c r="C1343" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1343" t="n">
-        <v>3.188324555552646</v>
-      </c>
-      <c r="E1343" t="n">
-        <v>841</v>
-      </c>
-      <c r="F1343" t="n">
-        <v>-2681.380951219775</v>
-      </c>
-      <c r="G1343" t="n">
-        <v>4.782486833328969</v>
-      </c>
-      <c r="H1343" t="n">
-        <v>3.028908327775013</v>
-      </c>
-      <c r="I1343" t="n">
-        <v>3.188324555552646</v>
-      </c>
-      <c r="J1343" t="n">
-        <v>3.250594810997829</v>
-      </c>
-      <c r="K1343" t="n">
-        <v>3.08454054903734</v>
-      </c>
+      <c r="B1343" t="inlineStr"/>
+      <c r="C1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr"/>
+      <c r="H1343" t="inlineStr"/>
+      <c r="I1343" t="inlineStr"/>
+      <c r="J1343" t="inlineStr"/>
+      <c r="K1343" t="inlineStr"/>
       <c r="L1343" t="inlineStr"/>
       <c r="M1343" t="inlineStr"/>
     </row>
@@ -24144,42 +24352,18 @@
       <c r="A1351" s="1" t="n">
         <v>1349</v>
       </c>
-      <c r="B1351" t="n">
-        <v>2549.697770776015</v>
-      </c>
-      <c r="C1351" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1351" t="n">
-        <v>3.028908327775013</v>
-      </c>
-      <c r="E1351" t="n">
-        <v>841</v>
-      </c>
-      <c r="F1351" t="n">
-        <v>2681.380951219775</v>
-      </c>
+      <c r="B1351" t="inlineStr"/>
+      <c r="C1351" t="inlineStr"/>
+      <c r="D1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr"/>
+      <c r="F1351" t="inlineStr"/>
       <c r="G1351" t="inlineStr"/>
       <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="n">
-        <v>3.08454054903734</v>
-      </c>
-      <c r="J1351" t="n">
-        <v>3.126054300107462</v>
-      </c>
-      <c r="K1351" t="n">
-        <v>2.980756789962034</v>
-      </c>
-      <c r="L1351" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M1351" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I1351" t="inlineStr"/>
+      <c r="J1351" t="inlineStr"/>
+      <c r="K1351" t="inlineStr"/>
+      <c r="L1351" t="inlineStr"/>
+      <c r="M1351" t="inlineStr"/>
     </row>
     <row r="1352">
       <c r="A1352" s="1" t="n">
@@ -24746,38 +24930,16 @@
       <c r="A1385" s="1" t="n">
         <v>1383</v>
       </c>
-      <c r="B1385" t="n">
-        <v>0.1566271409060391</v>
-      </c>
-      <c r="C1385" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1385" t="n">
-        <v>3.580816212970659</v>
-      </c>
-      <c r="E1385" t="n">
-        <v>712</v>
-      </c>
-      <c r="F1385" t="n">
-        <v>-2549.541143635109</v>
-      </c>
-      <c r="G1385" t="n">
-        <v>5.371224319455989</v>
-      </c>
-      <c r="H1385" t="n">
-        <v>3.401775402322126</v>
-      </c>
-      <c r="I1385" t="n">
-        <v>3.580816212970659</v>
-      </c>
-      <c r="J1385" t="n">
-        <v>3.743410963183187</v>
-      </c>
-      <c r="K1385" t="n">
-        <v>3.536472238241958</v>
-      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
+      <c r="K1385" t="inlineStr"/>
       <c r="L1385" t="inlineStr"/>
       <c r="M1385" t="inlineStr"/>
     </row>
@@ -25125,42 +25287,18 @@
       <c r="A1406" s="1" t="n">
         <v>1404</v>
       </c>
-      <c r="B1406" t="n">
-        <v>2739.704292371205</v>
-      </c>
-      <c r="C1406" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1406" t="n">
-        <v>3.847679305098735</v>
-      </c>
-      <c r="E1406" t="n">
-        <v>712</v>
-      </c>
-      <c r="F1406" t="n">
-        <v>2549.541143635109</v>
-      </c>
+      <c r="B1406" t="inlineStr"/>
+      <c r="C1406" t="inlineStr"/>
+      <c r="D1406" t="inlineStr"/>
+      <c r="E1406" t="inlineStr"/>
+      <c r="F1406" t="inlineStr"/>
       <c r="G1406" t="inlineStr"/>
       <c r="H1406" t="inlineStr"/>
-      <c r="I1406" t="n">
-        <v>3.80373472365473</v>
-      </c>
-      <c r="J1406" t="n">
-        <v>3.891623781770844</v>
-      </c>
-      <c r="K1406" t="n">
-        <v>3.777368037651465</v>
-      </c>
-      <c r="L1406" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M1406" t="n">
-        <v>7</v>
-      </c>
+      <c r="I1406" t="inlineStr"/>
+      <c r="J1406" t="inlineStr"/>
+      <c r="K1406" t="inlineStr"/>
+      <c r="L1406" t="inlineStr"/>
+      <c r="M1406" t="inlineStr"/>
     </row>
     <row r="1407">
       <c r="A1407" s="1" t="n">
@@ -25608,16 +25746,38 @@
       <c r="A1433" s="1" t="n">
         <v>1431</v>
       </c>
-      <c r="B1433" t="inlineStr"/>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr"/>
-      <c r="H1433" t="inlineStr"/>
-      <c r="I1433" t="inlineStr"/>
-      <c r="J1433" t="inlineStr"/>
-      <c r="K1433" t="inlineStr"/>
+      <c r="B1433" t="n">
+        <v>3.526422135887287</v>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1433" t="n">
+        <v>9.224078396305137</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>-848.6152124600726</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>13.8361175944577</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>8.762874476489879</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>9.224078396305137</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>9.281956859443692</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>9.16620048513651</v>
+      </c>
       <c r="L1433" t="inlineStr"/>
       <c r="M1433" t="inlineStr"/>
     </row>
@@ -25829,18 +25989,42 @@
       <c r="A1446" s="1" t="n">
         <v>1444</v>
       </c>
-      <c r="B1446" t="inlineStr"/>
-      <c r="C1446" t="inlineStr"/>
-      <c r="D1446" t="inlineStr"/>
-      <c r="E1446" t="inlineStr"/>
-      <c r="F1446" t="inlineStr"/>
+      <c r="B1446" t="n">
+        <v>809.7108739729562</v>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1446" t="n">
+        <v>8.762874476489879</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>848.6152124600726</v>
+      </c>
       <c r="G1446" t="inlineStr"/>
       <c r="H1446" t="inlineStr"/>
-      <c r="I1446" t="inlineStr"/>
-      <c r="J1446" t="inlineStr"/>
-      <c r="K1446" t="inlineStr"/>
-      <c r="L1446" t="inlineStr"/>
-      <c r="M1446" t="inlineStr"/>
+      <c r="I1446" t="n">
+        <v>8.891458548294011</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>8.938754803738997</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>8.702272022993217</v>
+      </c>
+      <c r="L1446" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1446" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="1" t="n">
@@ -26101,16 +26285,38 @@
       <c r="A1462" s="1" t="n">
         <v>1460</v>
       </c>
-      <c r="B1462" t="inlineStr"/>
-      <c r="C1462" t="inlineStr"/>
-      <c r="D1462" t="inlineStr"/>
-      <c r="E1462" t="inlineStr"/>
-      <c r="F1462" t="inlineStr"/>
-      <c r="G1462" t="inlineStr"/>
-      <c r="H1462" t="inlineStr"/>
-      <c r="I1462" t="inlineStr"/>
-      <c r="J1462" t="inlineStr"/>
-      <c r="K1462" t="inlineStr"/>
+      <c r="B1462" t="n">
+        <v>6.603071907782464</v>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1462" t="n">
+        <v>8.729432631143192</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>-803.1078020651737</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>13.09414894671479</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>8.292960999586033</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>8.729432631143192</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>9.132087890162923</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>8.729432631143192</v>
+      </c>
       <c r="L1462" t="inlineStr"/>
       <c r="M1462" t="inlineStr"/>
     </row>
@@ -26169,18 +26375,42 @@
       <c r="A1466" s="1" t="n">
         <v>1464</v>
       </c>
-      <c r="B1466" t="inlineStr"/>
-      <c r="C1466" t="inlineStr"/>
-      <c r="D1466" t="inlineStr"/>
-      <c r="E1466" t="inlineStr"/>
-      <c r="F1466" t="inlineStr"/>
+      <c r="B1466" t="n">
+        <v>769.5554838696975</v>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1466" t="n">
+        <v>8.292960999586033</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>92</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>803.1078020651737</v>
+      </c>
       <c r="G1466" t="inlineStr"/>
       <c r="H1466" t="inlineStr"/>
-      <c r="I1466" t="inlineStr"/>
-      <c r="J1466" t="inlineStr"/>
-      <c r="K1466" t="inlineStr"/>
-      <c r="L1466" t="inlineStr"/>
-      <c r="M1466" t="inlineStr"/>
+      <c r="I1466" t="n">
+        <v>8.560031393675542</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>8.612956730915382</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>8.048423445642467</v>
+      </c>
+      <c r="L1466" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1466" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="1" t="n">
@@ -26900,16 +27130,38 @@
       <c r="A1509" s="1" t="n">
         <v>1507</v>
       </c>
-      <c r="B1509" t="inlineStr"/>
-      <c r="C1509" t="inlineStr"/>
-      <c r="D1509" t="inlineStr"/>
-      <c r="E1509" t="inlineStr"/>
-      <c r="F1509" t="inlineStr"/>
-      <c r="G1509" t="inlineStr"/>
-      <c r="H1509" t="inlineStr"/>
-      <c r="I1509" t="inlineStr"/>
-      <c r="J1509" t="inlineStr"/>
-      <c r="K1509" t="inlineStr"/>
+      <c r="B1509" t="n">
+        <v>1.817471982046527</v>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1509" t="n">
+        <v>9.032211904560599</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>-767.7380118876509</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>13.5483178568409</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>8.580601309332568</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>9.032211904560599</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>9.271645573810313</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>8.952400427764477</v>
+      </c>
       <c r="L1509" t="inlineStr"/>
       <c r="M1509" t="inlineStr"/>
     </row>
@@ -27019,18 +27271,42 @@
       <c r="A1516" s="1" t="n">
         <v>1514</v>
       </c>
-      <c r="B1516" t="inlineStr"/>
-      <c r="C1516" t="inlineStr"/>
-      <c r="D1516" t="inlineStr"/>
-      <c r="E1516" t="inlineStr"/>
-      <c r="F1516" t="inlineStr"/>
+      <c r="B1516" t="n">
+        <v>731.1685832753149</v>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1516" t="n">
+        <v>8.580601309332568</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>85</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>767.7380118876509</v>
+      </c>
       <c r="G1516" t="inlineStr"/>
       <c r="H1516" t="inlineStr"/>
-      <c r="I1516" t="inlineStr"/>
-      <c r="J1516" t="inlineStr"/>
-      <c r="K1516" t="inlineStr"/>
-      <c r="L1516" t="inlineStr"/>
-      <c r="M1516" t="inlineStr"/>
+      <c r="I1516" t="n">
+        <v>8.785252023038819</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>8.802504623445031</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>8.181395377739932</v>
+      </c>
+      <c r="L1516" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1516" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1517">
       <c r="A1517" s="1" t="n">
@@ -27767,38 +28043,16 @@
       <c r="A1560" s="1" t="n">
         <v>1558</v>
       </c>
-      <c r="B1560" t="n">
-        <v>2.187313942794844</v>
-      </c>
-      <c r="C1560" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1560" t="n">
-        <v>3.434776635418332</v>
-      </c>
-      <c r="E1560" t="n">
-        <v>797</v>
-      </c>
-      <c r="F1560" t="n">
-        <v>-2737.51697842841</v>
-      </c>
-      <c r="G1560" t="n">
-        <v>5.152164953127498</v>
-      </c>
-      <c r="H1560" t="n">
-        <v>3.263037803647415</v>
-      </c>
-      <c r="I1560" t="n">
-        <v>3.434776635418332</v>
-      </c>
-      <c r="J1560" t="n">
-        <v>3.467295548574779</v>
-      </c>
-      <c r="K1560" t="n">
-        <v>3.356731088780449</v>
-      </c>
+      <c r="B1560" t="inlineStr"/>
+      <c r="C1560" t="inlineStr"/>
+      <c r="D1560" t="inlineStr"/>
+      <c r="E1560" t="inlineStr"/>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="inlineStr"/>
+      <c r="H1560" t="inlineStr"/>
+      <c r="I1560" t="inlineStr"/>
+      <c r="J1560" t="inlineStr"/>
+      <c r="K1560" t="inlineStr"/>
       <c r="L1560" t="inlineStr"/>
       <c r="M1560" t="inlineStr"/>
     </row>
@@ -27976,42 +28230,18 @@
       <c r="A1571" s="1" t="n">
         <v>1569</v>
       </c>
-      <c r="B1571" t="n">
-        <v>2602.828443449785</v>
-      </c>
-      <c r="C1571" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1571" t="n">
-        <v>3.263037803647415</v>
-      </c>
-      <c r="E1571" t="n">
-        <v>797</v>
-      </c>
-      <c r="F1571" t="n">
-        <v>2737.51697842841</v>
-      </c>
+      <c r="B1571" t="inlineStr"/>
+      <c r="C1571" t="inlineStr"/>
+      <c r="D1571" t="inlineStr"/>
+      <c r="E1571" t="inlineStr"/>
+      <c r="F1571" t="inlineStr"/>
       <c r="G1571" t="inlineStr"/>
       <c r="H1571" t="inlineStr"/>
-      <c r="I1571" t="n">
-        <v>3.350603716666837</v>
-      </c>
-      <c r="J1571" t="n">
-        <v>3.350603716666837</v>
-      </c>
-      <c r="K1571" t="n">
-        <v>3.200872270351427</v>
-      </c>
-      <c r="L1571" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M1571" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I1571" t="inlineStr"/>
+      <c r="J1571" t="inlineStr"/>
+      <c r="K1571" t="inlineStr"/>
+      <c r="L1571" t="inlineStr"/>
+      <c r="M1571" t="inlineStr"/>
     </row>
     <row r="1572">
       <c r="A1572" s="1" t="n">
@@ -28493,16 +28723,38 @@
       <c r="A1600" s="1" t="n">
         <v>1598</v>
       </c>
-      <c r="B1600" t="inlineStr"/>
-      <c r="C1600" t="inlineStr"/>
-      <c r="D1600" t="inlineStr"/>
-      <c r="E1600" t="inlineStr"/>
-      <c r="F1600" t="inlineStr"/>
-      <c r="G1600" t="inlineStr"/>
-      <c r="H1600" t="inlineStr"/>
-      <c r="I1600" t="inlineStr"/>
-      <c r="J1600" t="inlineStr"/>
-      <c r="K1600" t="inlineStr"/>
+      <c r="B1600" t="n">
+        <v>5.979643700399265</v>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1600" t="n">
+        <v>9.179606830062223</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>-725.1889395749156</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>13.76941024509333</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>8.720626488559111</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>9.179606830062223</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>9.430229562229302</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>9.161704779527625</v>
+      </c>
       <c r="L1600" t="inlineStr"/>
       <c r="M1600" t="inlineStr"/>
     </row>
@@ -28629,38 +28881,16 @@
       <c r="A1608" s="1" t="n">
         <v>1606</v>
       </c>
-      <c r="B1608" t="n">
-        <v>1.924613387001955</v>
-      </c>
-      <c r="C1608" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1608" t="n">
-        <v>3.514734905490247</v>
-      </c>
-      <c r="E1608" t="n">
-        <v>740</v>
-      </c>
-      <c r="F1608" t="n">
-        <v>-2600.903830062783</v>
-      </c>
-      <c r="G1608" t="n">
-        <v>5.272102358235371</v>
-      </c>
-      <c r="H1608" t="n">
-        <v>3.338998160215735</v>
-      </c>
-      <c r="I1608" t="n">
-        <v>3.514734905490247</v>
-      </c>
-      <c r="J1608" t="n">
-        <v>3.715587247951214</v>
-      </c>
-      <c r="K1608" t="n">
-        <v>3.505170519088913</v>
-      </c>
+      <c r="B1608" t="inlineStr"/>
+      <c r="C1608" t="inlineStr"/>
+      <c r="D1608" t="inlineStr"/>
+      <c r="E1608" t="inlineStr"/>
+      <c r="F1608" t="inlineStr"/>
+      <c r="G1608" t="inlineStr"/>
+      <c r="H1608" t="inlineStr"/>
+      <c r="I1608" t="inlineStr"/>
+      <c r="J1608" t="inlineStr"/>
+      <c r="K1608" t="inlineStr"/>
       <c r="L1608" t="inlineStr"/>
       <c r="M1608" t="inlineStr"/>
     </row>
@@ -28872,18 +29102,42 @@
       <c r="A1621" s="1" t="n">
         <v>1619</v>
       </c>
-      <c r="B1621" t="inlineStr"/>
-      <c r="C1621" t="inlineStr"/>
-      <c r="D1621" t="inlineStr"/>
-      <c r="E1621" t="inlineStr"/>
-      <c r="F1621" t="inlineStr"/>
+      <c r="B1621" t="n">
+        <v>782.6545367064793</v>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1621" t="n">
+        <v>9.831327759570634</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>725.1889395749156</v>
+      </c>
       <c r="G1621" t="inlineStr"/>
       <c r="H1621" t="inlineStr"/>
-      <c r="I1621" t="inlineStr"/>
-      <c r="J1621" t="inlineStr"/>
-      <c r="K1621" t="inlineStr"/>
-      <c r="L1621" t="inlineStr"/>
-      <c r="M1621" t="inlineStr"/>
+      <c r="I1621" t="n">
+        <v>9.704429064725996</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>9.849455650590361</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>9.686301173706273</v>
+      </c>
+      <c r="L1621" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M1621" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="1" t="n">
@@ -29008,42 +29262,18 @@
       <c r="A1629" s="1" t="n">
         <v>1627</v>
       </c>
-      <c r="B1629" t="n">
-        <v>2914.24520216599</v>
-      </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1629" t="n">
-        <v>3.935568363214849</v>
-      </c>
-      <c r="E1629" t="n">
-        <v>740</v>
-      </c>
-      <c r="F1629" t="n">
-        <v>2600.903830062783</v>
-      </c>
+      <c r="B1629" t="inlineStr"/>
+      <c r="C1629" t="inlineStr"/>
+      <c r="D1629" t="inlineStr"/>
+      <c r="E1629" t="inlineStr"/>
+      <c r="F1629" t="inlineStr"/>
       <c r="G1629" t="inlineStr"/>
       <c r="H1629" t="inlineStr"/>
-      <c r="I1629" t="n">
-        <v>3.833643405001887</v>
-      </c>
-      <c r="J1629" t="n">
-        <v>3.935568363214849</v>
-      </c>
-      <c r="K1629" t="n">
-        <v>3.746278981527729</v>
-      </c>
-      <c r="L1629" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M1629" t="n">
-        <v>12</v>
-      </c>
+      <c r="I1629" t="inlineStr"/>
+      <c r="J1629" t="inlineStr"/>
+      <c r="K1629" t="inlineStr"/>
+      <c r="L1629" t="inlineStr"/>
+      <c r="M1629" t="inlineStr"/>
     </row>
     <row r="1630">
       <c r="A1630" s="1" t="n">
@@ -29950,16 +30180,38 @@
       <c r="A1683" s="1" t="n">
         <v>1681</v>
       </c>
-      <c r="B1683" t="inlineStr"/>
-      <c r="C1683" t="inlineStr"/>
-      <c r="D1683" t="inlineStr"/>
-      <c r="E1683" t="inlineStr"/>
-      <c r="F1683" t="inlineStr"/>
-      <c r="G1683" t="inlineStr"/>
-      <c r="H1683" t="inlineStr"/>
-      <c r="I1683" t="inlineStr"/>
-      <c r="J1683" t="inlineStr"/>
-      <c r="K1683" t="inlineStr"/>
+      <c r="B1683" t="n">
+        <v>7.288709701463858</v>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1683" t="n">
+        <v>8.912250885115121</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>-775.3658270050155</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>13.36837632767268</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>8.466638340859365</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>8.912250885115121</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>9.028290846859164</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>8.854230443141279</v>
+      </c>
       <c r="L1683" t="inlineStr"/>
       <c r="M1683" t="inlineStr"/>
     </row>
@@ -30069,18 +30321,42 @@
       <c r="A1690" s="1" t="n">
         <v>1688</v>
       </c>
-      <c r="B1690" t="inlineStr"/>
-      <c r="C1690" t="inlineStr"/>
-      <c r="D1690" t="inlineStr"/>
-      <c r="E1690" t="inlineStr"/>
-      <c r="F1690" t="inlineStr"/>
+      <c r="B1690" t="n">
+        <v>743.8862453562286</v>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1690" t="n">
+        <v>8.466638340859365</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>87</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>775.3658270050155</v>
+      </c>
       <c r="G1690" t="inlineStr"/>
       <c r="H1690" t="inlineStr"/>
-      <c r="I1690" t="inlineStr"/>
-      <c r="J1690" t="inlineStr"/>
-      <c r="K1690" t="inlineStr"/>
-      <c r="L1690" t="inlineStr"/>
-      <c r="M1690" t="inlineStr"/>
+      <c r="I1690" t="n">
+        <v>8.820149552911269</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>8.844112185930644</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>8.388832441973609</v>
+      </c>
+      <c r="L1690" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1690" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="1" t="n">
@@ -30188,16 +30464,38 @@
       <c r="A1697" s="1" t="n">
         <v>1695</v>
       </c>
-      <c r="B1697" t="inlineStr"/>
-      <c r="C1697" t="inlineStr"/>
-      <c r="D1697" t="inlineStr"/>
-      <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr"/>
-      <c r="G1697" t="inlineStr"/>
-      <c r="H1697" t="inlineStr"/>
-      <c r="I1697" t="inlineStr"/>
-      <c r="J1697" t="inlineStr"/>
-      <c r="K1697" t="inlineStr"/>
+      <c r="B1697" t="n">
+        <v>7.661827032359383</v>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1697" t="n">
+        <v>8.272184475549093</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>-736.2244183238693</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>12.40827671332364</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>7.858575251771637</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>8.272184475549093</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>8.473562944705863</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>8.196666949460125</v>
+      </c>
       <c r="L1697" t="inlineStr"/>
       <c r="M1697" t="inlineStr"/>
     </row>
@@ -30205,18 +30503,42 @@
       <c r="A1698" s="1" t="n">
         <v>1696</v>
       </c>
-      <c r="B1698" t="inlineStr"/>
-      <c r="C1698" t="inlineStr"/>
-      <c r="D1698" t="inlineStr"/>
-      <c r="E1698" t="inlineStr"/>
-      <c r="F1698" t="inlineStr"/>
+      <c r="B1698" t="n">
+        <v>707.0750244400351</v>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1698" t="n">
+        <v>7.858575251771637</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>89</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>736.2244183238693</v>
+      </c>
       <c r="G1698" t="inlineStr"/>
       <c r="H1698" t="inlineStr"/>
-      <c r="I1698" t="inlineStr"/>
-      <c r="J1698" t="inlineStr"/>
-      <c r="K1698" t="inlineStr"/>
-      <c r="L1698" t="inlineStr"/>
-      <c r="M1698" t="inlineStr"/>
+      <c r="I1698" t="n">
+        <v>8.479279694960274</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>8.57034140979526</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>7.819081719635999</v>
+      </c>
+      <c r="L1698" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1698" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="1" t="n">
@@ -30443,38 +30765,16 @@
       <c r="A1712" s="1" t="n">
         <v>1710</v>
       </c>
-      <c r="B1712" t="n">
-        <v>0.1695824621715474</v>
-      </c>
-      <c r="C1712" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1712" t="n">
-        <v>3.338001855330835</v>
-      </c>
-      <c r="E1712" t="n">
-        <v>873</v>
-      </c>
-      <c r="F1712" t="n">
-        <v>-2914.075619703819</v>
-      </c>
-      <c r="G1712" t="n">
-        <v>5.007002782996253</v>
-      </c>
-      <c r="H1712" t="n">
-        <v>3.171101762564293</v>
-      </c>
-      <c r="I1712" t="n">
-        <v>3.338001855330835</v>
-      </c>
-      <c r="J1712" t="n">
-        <v>3.510568008783741</v>
-      </c>
-      <c r="K1712" t="n">
-        <v>3.329784428781597</v>
-      </c>
+      <c r="B1712" t="inlineStr"/>
+      <c r="C1712" t="inlineStr"/>
+      <c r="D1712" t="inlineStr"/>
+      <c r="E1712" t="inlineStr"/>
+      <c r="F1712" t="inlineStr"/>
+      <c r="G1712" t="inlineStr"/>
+      <c r="H1712" t="inlineStr"/>
+      <c r="I1712" t="inlineStr"/>
+      <c r="J1712" t="inlineStr"/>
+      <c r="K1712" t="inlineStr"/>
       <c r="L1712" t="inlineStr"/>
       <c r="M1712" t="inlineStr"/>
     </row>
@@ -30822,42 +31122,18 @@
       <c r="A1733" s="1" t="n">
         <v>1731</v>
       </c>
-      <c r="B1733" t="n">
-        <v>3054.752737777731</v>
-      </c>
-      <c r="C1733" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1733" t="n">
-        <v>3.498949776993769</v>
-      </c>
-      <c r="E1733" t="n">
-        <v>873</v>
-      </c>
-      <c r="F1733" t="n">
-        <v>2914.075619703819</v>
-      </c>
+      <c r="B1733" t="inlineStr"/>
+      <c r="C1733" t="inlineStr"/>
+      <c r="D1733" t="inlineStr"/>
+      <c r="E1733" t="inlineStr"/>
+      <c r="F1733" t="inlineStr"/>
       <c r="G1733" t="inlineStr"/>
       <c r="H1733" t="inlineStr"/>
-      <c r="I1733" t="n">
-        <v>3.584047032991381</v>
-      </c>
-      <c r="J1733" t="n">
-        <v>3.584047032991381</v>
-      </c>
-      <c r="K1733" t="n">
-        <v>3.461128774328163</v>
-      </c>
-      <c r="L1733" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M1733" t="n">
-        <v>5</v>
-      </c>
+      <c r="I1733" t="inlineStr"/>
+      <c r="J1733" t="inlineStr"/>
+      <c r="K1733" t="inlineStr"/>
+      <c r="L1733" t="inlineStr"/>
+      <c r="M1733" t="inlineStr"/>
     </row>
     <row r="1734">
       <c r="A1734" s="1" t="n">
@@ -30914,16 +31190,38 @@
       <c r="A1737" s="1" t="n">
         <v>1735</v>
       </c>
-      <c r="B1737" t="inlineStr"/>
-      <c r="C1737" t="inlineStr"/>
-      <c r="D1737" t="inlineStr"/>
-      <c r="E1737" t="inlineStr"/>
-      <c r="F1737" t="inlineStr"/>
-      <c r="G1737" t="inlineStr"/>
-      <c r="H1737" t="inlineStr"/>
-      <c r="I1737" t="inlineStr"/>
-      <c r="J1737" t="inlineStr"/>
-      <c r="K1737" t="inlineStr"/>
+      <c r="B1737" t="n">
+        <v>7.623374685483896</v>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1737" t="n">
+        <v>8.853818351323433</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>-699.4516497545512</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>13.28072752698515</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>8.411127433757262</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>8.853818351323433</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>9.032907693931138</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>8.814020825060373</v>
+      </c>
       <c r="L1737" t="inlineStr"/>
       <c r="M1737" t="inlineStr"/>
     </row>
@@ -31033,18 +31331,42 @@
       <c r="A1744" s="1" t="n">
         <v>1742</v>
       </c>
-      <c r="B1744" t="inlineStr"/>
-      <c r="C1744" t="inlineStr"/>
-      <c r="D1744" t="inlineStr"/>
-      <c r="E1744" t="inlineStr"/>
-      <c r="F1744" t="inlineStr"/>
+      <c r="B1744" t="n">
+        <v>672.1024419523076</v>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1744" t="n">
+        <v>8.411127433757262</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>79</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>699.4516497545512</v>
+      </c>
       <c r="G1744" t="inlineStr"/>
       <c r="H1744" t="inlineStr"/>
-      <c r="I1744" t="inlineStr"/>
-      <c r="J1744" t="inlineStr"/>
-      <c r="K1744" t="inlineStr"/>
-      <c r="L1744" t="inlineStr"/>
-      <c r="M1744" t="inlineStr"/>
+      <c r="I1744" t="n">
+        <v>8.634931482452666</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>8.674729008715726</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>8.296652983640591</v>
+      </c>
+      <c r="L1744" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1744" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="1" t="n">
@@ -31475,38 +31797,16 @@
       <c r="A1770" s="1" t="n">
         <v>1768</v>
       </c>
-      <c r="B1770" t="n">
-        <v>2.419861551930808</v>
-      </c>
-      <c r="C1770" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1770" t="n">
-        <v>3.395253477448054</v>
-      </c>
-      <c r="E1770" t="n">
-        <v>899</v>
-      </c>
-      <c r="F1770" t="n">
-        <v>-3052.332876225801</v>
-      </c>
-      <c r="G1770" t="n">
-        <v>5.092880216172081</v>
-      </c>
-      <c r="H1770" t="n">
-        <v>3.225490803575652</v>
-      </c>
-      <c r="I1770" t="n">
-        <v>3.395253477448054</v>
-      </c>
-      <c r="J1770" t="n">
-        <v>3.575358558649078</v>
-      </c>
-      <c r="K1770" t="n">
-        <v>3.36523602355393</v>
-      </c>
+      <c r="B1770" t="inlineStr"/>
+      <c r="C1770" t="inlineStr"/>
+      <c r="D1770" t="inlineStr"/>
+      <c r="E1770" t="inlineStr"/>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="inlineStr"/>
+      <c r="H1770" t="inlineStr"/>
+      <c r="I1770" t="inlineStr"/>
+      <c r="J1770" t="inlineStr"/>
+      <c r="K1770" t="inlineStr"/>
       <c r="L1770" t="inlineStr"/>
       <c r="M1770" t="inlineStr"/>
     </row>
@@ -31752,16 +32052,38 @@
       <c r="A1785" s="1" t="n">
         <v>1783</v>
       </c>
-      <c r="B1785" t="inlineStr"/>
-      <c r="C1785" t="inlineStr"/>
-      <c r="D1785" t="inlineStr"/>
-      <c r="E1785" t="inlineStr"/>
-      <c r="F1785" t="inlineStr"/>
-      <c r="G1785" t="inlineStr"/>
-      <c r="H1785" t="inlineStr"/>
-      <c r="I1785" t="inlineStr"/>
-      <c r="J1785" t="inlineStr"/>
-      <c r="K1785" t="inlineStr"/>
+      <c r="B1785" t="n">
+        <v>4.610843855946996</v>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1785" t="n">
+        <v>8.668722053199488</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>-667.4915980963606</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>13.00308307979923</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>8.235285950539513</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>8.668722053199488</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>9.346018064776988</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>8.580379186744164</v>
+      </c>
       <c r="L1785" t="inlineStr"/>
       <c r="M1785" t="inlineStr"/>
     </row>
@@ -31854,42 +32176,18 @@
       <c r="A1791" s="1" t="n">
         <v>1789</v>
       </c>
-      <c r="B1791" t="n">
-        <v>3298.506908503551</v>
-      </c>
-      <c r="C1791" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1791" t="n">
-        <v>3.666392710735951</v>
-      </c>
-      <c r="E1791" t="n">
-        <v>899</v>
-      </c>
-      <c r="F1791" t="n">
-        <v>3052.332876225801</v>
-      </c>
+      <c r="B1791" t="inlineStr"/>
+      <c r="C1791" t="inlineStr"/>
+      <c r="D1791" t="inlineStr"/>
+      <c r="E1791" t="inlineStr"/>
+      <c r="F1791" t="inlineStr"/>
       <c r="G1791" t="inlineStr"/>
       <c r="H1791" t="inlineStr"/>
-      <c r="I1791" t="n">
-        <v>3.65136309465254</v>
-      </c>
-      <c r="J1791" t="n">
-        <v>3.786629639403245</v>
-      </c>
-      <c r="K1791" t="n">
-        <v>3.65136309465254</v>
-      </c>
-      <c r="L1791" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M1791" t="n">
-        <v>8</v>
-      </c>
+      <c r="I1791" t="inlineStr"/>
+      <c r="J1791" t="inlineStr"/>
+      <c r="K1791" t="inlineStr"/>
+      <c r="L1791" t="inlineStr"/>
+      <c r="M1791" t="inlineStr"/>
     </row>
     <row r="1792">
       <c r="A1792" s="1" t="n">
@@ -32133,18 +32431,42 @@
       <c r="A1806" s="1" t="n">
         <v>1804</v>
       </c>
-      <c r="B1806" t="inlineStr"/>
-      <c r="C1806" t="inlineStr"/>
-      <c r="D1806" t="inlineStr"/>
-      <c r="E1806" t="inlineStr"/>
-      <c r="F1806" t="inlineStr"/>
+      <c r="B1806" t="n">
+        <v>729.3048493697335</v>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1806" t="n">
+        <v>9.411610461218006</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>667.4915980963606</v>
+      </c>
       <c r="G1806" t="inlineStr"/>
       <c r="H1806" t="inlineStr"/>
-      <c r="I1806" t="inlineStr"/>
-      <c r="J1806" t="inlineStr"/>
-      <c r="K1806" t="inlineStr"/>
-      <c r="L1806" t="inlineStr"/>
-      <c r="M1806" t="inlineStr"/>
+      <c r="I1806" t="n">
+        <v>9.258046730759206</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>9.411610461218006</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>9.165909664077743</v>
+      </c>
+      <c r="L1806" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M1806" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="1" t="n">
@@ -32490,38 +32812,16 @@
       <c r="A1827" s="1" t="n">
         <v>1825</v>
       </c>
-      <c r="B1827" t="n">
-        <v>0.02953670435545064</v>
-      </c>
-      <c r="C1827" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1827" t="n">
-        <v>3.464787155251256</v>
-      </c>
-      <c r="E1827" t="n">
-        <v>952</v>
-      </c>
-      <c r="F1827" t="n">
-        <v>-3298.477371799195</v>
-      </c>
-      <c r="G1827" t="n">
-        <v>5.197180732876884</v>
-      </c>
-      <c r="H1827" t="n">
-        <v>3.291547797488693</v>
-      </c>
-      <c r="I1827" t="n">
-        <v>3.464787155251256</v>
-      </c>
-      <c r="J1827" t="n">
-        <v>3.573428872849667</v>
-      </c>
-      <c r="K1827" t="n">
-        <v>3.446680202318187</v>
-      </c>
+      <c r="B1827" t="inlineStr"/>
+      <c r="C1827" t="inlineStr"/>
+      <c r="D1827" t="inlineStr"/>
+      <c r="E1827" t="inlineStr"/>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="inlineStr"/>
+      <c r="H1827" t="inlineStr"/>
+      <c r="I1827" t="inlineStr"/>
+      <c r="J1827" t="inlineStr"/>
+      <c r="K1827" t="inlineStr"/>
       <c r="L1827" t="inlineStr"/>
       <c r="M1827" t="inlineStr"/>
     </row>
@@ -32648,42 +32948,18 @@
       <c r="A1835" s="1" t="n">
         <v>1833</v>
       </c>
-      <c r="B1835" t="n">
-        <v>3133.583039913591</v>
-      </c>
-      <c r="C1835" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1835" t="n">
-        <v>3.291547797488693</v>
-      </c>
-      <c r="E1835" t="n">
-        <v>952</v>
-      </c>
-      <c r="F1835" t="n">
-        <v>3298.477371799195</v>
-      </c>
+      <c r="B1835" t="inlineStr"/>
+      <c r="C1835" t="inlineStr"/>
+      <c r="D1835" t="inlineStr"/>
+      <c r="E1835" t="inlineStr"/>
+      <c r="F1835" t="inlineStr"/>
       <c r="G1835" t="inlineStr"/>
       <c r="H1835" t="inlineStr"/>
-      <c r="I1835" t="n">
-        <v>3.312864819003013</v>
-      </c>
-      <c r="J1835" t="n">
-        <v>3.354378322633136</v>
-      </c>
-      <c r="K1835" t="n">
-        <v>3.25059456355783</v>
-      </c>
-      <c r="L1835" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M1835" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I1835" t="inlineStr"/>
+      <c r="J1835" t="inlineStr"/>
+      <c r="K1835" t="inlineStr"/>
+      <c r="L1835" t="inlineStr"/>
+      <c r="M1835" t="inlineStr"/>
     </row>
     <row r="1836">
       <c r="A1836" s="1" t="n">
@@ -32808,38 +33084,16 @@
       <c r="A1843" s="1" t="n">
         <v>1841</v>
       </c>
-      <c r="B1843" t="n">
-        <v>0.5936865742419286</v>
-      </c>
-      <c r="C1843" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1843" t="n">
-        <v>3.354378322633136</v>
-      </c>
-      <c r="E1843" t="n">
-        <v>934</v>
-      </c>
-      <c r="F1843" t="n">
-        <v>-3132.989353339349</v>
-      </c>
-      <c r="G1843" t="n">
-        <v>5.031567483949704</v>
-      </c>
-      <c r="H1843" t="n">
-        <v>3.186659406501479</v>
-      </c>
-      <c r="I1843" t="n">
-        <v>3.354378322633136</v>
-      </c>
-      <c r="J1843" t="n">
-        <v>3.499676080218564</v>
-      </c>
-      <c r="K1843" t="n">
-        <v>3.354378322633136</v>
-      </c>
+      <c r="B1843" t="inlineStr"/>
+      <c r="C1843" t="inlineStr"/>
+      <c r="D1843" t="inlineStr"/>
+      <c r="E1843" t="inlineStr"/>
+      <c r="F1843" t="inlineStr"/>
+      <c r="G1843" t="inlineStr"/>
+      <c r="H1843" t="inlineStr"/>
+      <c r="I1843" t="inlineStr"/>
+      <c r="J1843" t="inlineStr"/>
+      <c r="K1843" t="inlineStr"/>
       <c r="L1843" t="inlineStr"/>
       <c r="M1843" t="inlineStr"/>
     </row>
@@ -33188,41 +33442,39 @@
         <v>1862</v>
       </c>
       <c r="B1864" t="n">
-        <v>3384.836665234361</v>
+        <v>6.215020547340259</v>
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t>VENDI</t>
+          <t>COMPRA</t>
         </is>
       </c>
       <c r="D1864" t="n">
-        <v>3.623386486788136</v>
+        <v>8.711925648462568</v>
       </c>
       <c r="E1864" t="n">
-        <v>934</v>
+        <v>83</v>
       </c>
       <c r="F1864" t="n">
-        <v>3132.989353339349</v>
-      </c>
-      <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr"/>
+        <v>-723.0898288223932</v>
+      </c>
+      <c r="G1864" t="n">
+        <v>13.06788847269385</v>
+      </c>
+      <c r="H1864" t="n">
+        <v>8.276329366039439</v>
+      </c>
       <c r="I1864" t="n">
-        <v>3.766469704676504</v>
+        <v>8.711925648462568</v>
       </c>
       <c r="J1864" t="n">
-        <v>3.766469704676504</v>
+        <v>8.979779323808639</v>
       </c>
       <c r="K1864" t="n">
-        <v>3.597371356262978</v>
-      </c>
-      <c r="L1864" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M1864" t="n">
-        <v>8</v>
-      </c>
+        <v>8.65240276717871</v>
+      </c>
+      <c r="L1864" t="inlineStr"/>
+      <c r="M1864" t="inlineStr"/>
     </row>
     <row r="1865">
       <c r="A1865" s="1" t="n">
@@ -33415,18 +33667,42 @@
       <c r="A1876" s="1" t="n">
         <v>1874</v>
       </c>
-      <c r="B1876" t="inlineStr"/>
-      <c r="C1876" t="inlineStr"/>
-      <c r="D1876" t="inlineStr"/>
-      <c r="E1876" t="inlineStr"/>
-      <c r="F1876" t="inlineStr"/>
+      <c r="B1876" t="n">
+        <v>693.1503579286137</v>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1876" t="n">
+        <v>8.276329366039439</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>83</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>723.0898288223932</v>
+      </c>
       <c r="G1876" t="inlineStr"/>
       <c r="H1876" t="inlineStr"/>
-      <c r="I1876" t="inlineStr"/>
-      <c r="J1876" t="inlineStr"/>
-      <c r="K1876" t="inlineStr"/>
-      <c r="L1876" t="inlineStr"/>
-      <c r="M1876" t="inlineStr"/>
+      <c r="I1876" t="n">
+        <v>8.535318985597531</v>
+      </c>
+      <c r="J1876" t="n">
+        <v>8.628741140837736</v>
+      </c>
+      <c r="K1876" t="n">
+        <v>7.912503874876203</v>
+      </c>
+      <c r="L1876" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1876" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1877">
       <c r="A1877" s="1" t="n">
@@ -33585,16 +33861,38 @@
       <c r="A1886" s="1" t="n">
         <v>1884</v>
       </c>
-      <c r="B1886" t="inlineStr"/>
-      <c r="C1886" t="inlineStr"/>
-      <c r="D1886" t="inlineStr"/>
-      <c r="E1886" t="inlineStr"/>
-      <c r="F1886" t="inlineStr"/>
-      <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr"/>
-      <c r="I1886" t="inlineStr"/>
-      <c r="J1886" t="inlineStr"/>
-      <c r="K1886" t="inlineStr"/>
+      <c r="B1886" t="n">
+        <v>6.356257425155263</v>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1886" t="n">
+        <v>8.919403902642317</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>-686.7941005034585</v>
+      </c>
+      <c r="G1886" t="n">
+        <v>13.37910585396348</v>
+      </c>
+      <c r="H1886" t="n">
+        <v>8.473433707510202</v>
+      </c>
+      <c r="I1886" t="n">
+        <v>8.919403902642317</v>
+      </c>
+      <c r="J1886" t="n">
+        <v>9.294513331243826</v>
+      </c>
+      <c r="K1886" t="n">
+        <v>8.894396607402218</v>
+      </c>
       <c r="L1886" t="inlineStr"/>
       <c r="M1886" t="inlineStr"/>
     </row>
@@ -33942,33 +34240,79 @@
       <c r="A1907" s="1" t="n">
         <v>1905</v>
       </c>
-      <c r="B1907" t="inlineStr"/>
-      <c r="C1907" t="inlineStr"/>
-      <c r="D1907" t="inlineStr"/>
-      <c r="E1907" t="inlineStr"/>
-      <c r="F1907" t="inlineStr"/>
+      <c r="B1907" t="n">
+        <v>697.4718578443163</v>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1907" t="n">
+        <v>8.975527278170922</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>686.7941005034585</v>
+      </c>
       <c r="G1907" t="inlineStr"/>
       <c r="H1907" t="inlineStr"/>
-      <c r="I1907" t="inlineStr"/>
-      <c r="J1907" t="inlineStr"/>
-      <c r="K1907" t="inlineStr"/>
-      <c r="L1907" t="inlineStr"/>
-      <c r="M1907" t="inlineStr"/>
+      <c r="I1907" t="n">
+        <v>9.179606573977166</v>
+      </c>
+      <c r="J1907" t="n">
+        <v>9.179606573977166</v>
+      </c>
+      <c r="K1907" t="n">
+        <v>8.873488035735706</v>
+      </c>
+      <c r="L1907" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M1907" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1908">
       <c r="A1908" s="1" t="n">
         <v>1906</v>
       </c>
-      <c r="B1908" t="inlineStr"/>
-      <c r="C1908" t="inlineStr"/>
-      <c r="D1908" t="inlineStr"/>
-      <c r="E1908" t="inlineStr"/>
-      <c r="F1908" t="inlineStr"/>
-      <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr"/>
-      <c r="I1908" t="inlineStr"/>
-      <c r="J1908" t="inlineStr"/>
-      <c r="K1908" t="inlineStr"/>
+      <c r="B1908" t="n">
+        <v>3.737250202651353</v>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1908" t="n">
+        <v>9.009540358982662</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>-693.734607641665</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>13.51431053847399</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>8.559063341033529</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>9.009540358982662</v>
+      </c>
+      <c r="J1908" t="n">
+        <v>9.927895162771227</v>
+      </c>
+      <c r="K1908" t="n">
+        <v>9.009540358982662</v>
+      </c>
       <c r="L1908" t="inlineStr"/>
       <c r="M1908" t="inlineStr"/>
     </row>
@@ -34095,18 +34439,42 @@
       <c r="A1916" s="1" t="n">
         <v>1914</v>
       </c>
-      <c r="B1916" t="inlineStr"/>
-      <c r="C1916" t="inlineStr"/>
-      <c r="D1916" t="inlineStr"/>
-      <c r="E1916" t="inlineStr"/>
-      <c r="F1916" t="inlineStr"/>
+      <c r="B1916" t="n">
+        <v>662.785127462233</v>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1916" t="n">
+        <v>8.559063341033529</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>77</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>693.734607641665</v>
+      </c>
       <c r="G1916" t="inlineStr"/>
       <c r="H1916" t="inlineStr"/>
-      <c r="I1916" t="inlineStr"/>
-      <c r="J1916" t="inlineStr"/>
-      <c r="K1916" t="inlineStr"/>
-      <c r="L1916" t="inlineStr"/>
-      <c r="M1916" t="inlineStr"/>
+      <c r="I1916" t="n">
+        <v>9.043554250730214</v>
+      </c>
+      <c r="J1916" t="n">
+        <v>9.111580412353689</v>
+      </c>
+      <c r="K1916" t="n">
+        <v>8.227239500312674</v>
+      </c>
+      <c r="L1916" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1916" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1917">
       <c r="A1917" s="1" t="n">
@@ -34282,16 +34650,38 @@
       <c r="A1927" s="1" t="n">
         <v>1925</v>
       </c>
-      <c r="B1927" t="inlineStr"/>
-      <c r="C1927" t="inlineStr"/>
-      <c r="D1927" t="inlineStr"/>
-      <c r="E1927" t="inlineStr"/>
-      <c r="F1927" t="inlineStr"/>
-      <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr"/>
-      <c r="I1927" t="inlineStr"/>
-      <c r="J1927" t="inlineStr"/>
-      <c r="K1927" t="inlineStr"/>
+      <c r="B1927" t="n">
+        <v>8.308088999722941</v>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D1927" t="n">
+        <v>9.349671978035859</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>-654.4770384625101</v>
+      </c>
+      <c r="G1927" t="n">
+        <v>14.02450796705379</v>
+      </c>
+      <c r="H1927" t="n">
+        <v>8.882188379134066</v>
+      </c>
+      <c r="I1927" t="n">
+        <v>9.349671978035859</v>
+      </c>
+      <c r="J1927" t="n">
+        <v>9.417698139659336</v>
+      </c>
+      <c r="K1927" t="n">
+        <v>9.247632735600645</v>
+      </c>
       <c r="L1927" t="inlineStr"/>
       <c r="M1927" t="inlineStr"/>
     </row>
@@ -34316,38 +34706,16 @@
       <c r="A1929" s="1" t="n">
         <v>1927</v>
       </c>
-      <c r="B1929" t="n">
-        <v>3.234878731899698</v>
-      </c>
-      <c r="C1929" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D1929" t="n">
-        <v>3.270407917313793</v>
-      </c>
-      <c r="E1929" t="n">
-        <v>1034</v>
-      </c>
-      <c r="F1929" t="n">
-        <v>-3381.601786502461</v>
-      </c>
-      <c r="G1929" t="n">
-        <v>4.905611875970688</v>
-      </c>
-      <c r="H1929" t="n">
-        <v>3.106887521448103</v>
-      </c>
-      <c r="I1929" t="n">
-        <v>3.270407917313793</v>
-      </c>
-      <c r="J1929" t="n">
-        <v>3.418221545522166</v>
-      </c>
-      <c r="K1929" t="n">
-        <v>3.240845262155049</v>
-      </c>
+      <c r="B1929" t="inlineStr"/>
+      <c r="C1929" t="inlineStr"/>
+      <c r="D1929" t="inlineStr"/>
+      <c r="E1929" t="inlineStr"/>
+      <c r="F1929" t="inlineStr"/>
+      <c r="G1929" t="inlineStr"/>
+      <c r="H1929" t="inlineStr"/>
+      <c r="I1929" t="inlineStr"/>
+      <c r="J1929" t="inlineStr"/>
+      <c r="K1929" t="inlineStr"/>
       <c r="L1929" t="inlineStr"/>
       <c r="M1929" t="inlineStr"/>
     </row>
@@ -34542,18 +34910,42 @@
       <c r="A1941" s="1" t="n">
         <v>1939</v>
       </c>
-      <c r="B1941" t="inlineStr"/>
-      <c r="C1941" t="inlineStr"/>
-      <c r="D1941" t="inlineStr"/>
-      <c r="E1941" t="inlineStr"/>
-      <c r="F1941" t="inlineStr"/>
+      <c r="B1941" t="n">
+        <v>630.0612755391076</v>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D1941" t="n">
+        <v>8.882188379134066</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>654.4770384625101</v>
+      </c>
       <c r="G1941" t="inlineStr"/>
       <c r="H1941" t="inlineStr"/>
-      <c r="I1941" t="inlineStr"/>
-      <c r="J1941" t="inlineStr"/>
-      <c r="K1941" t="inlineStr"/>
-      <c r="L1941" t="inlineStr"/>
-      <c r="M1941" t="inlineStr"/>
+      <c r="I1941" t="n">
+        <v>9.077567331541951</v>
+      </c>
+      <c r="J1941" t="n">
+        <v>9.145593493165428</v>
+      </c>
+      <c r="K1941" t="n">
+        <v>8.873488035735706</v>
+      </c>
+      <c r="L1941" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M1941" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="1942">
       <c r="A1942" s="1" t="n">
@@ -34695,42 +35087,18 @@
       <c r="A1950" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B1950" t="n">
-        <v>6414.850672898915</v>
-      </c>
-      <c r="C1950" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D1950" t="n">
-        <v>3.106887521448103</v>
-      </c>
-      <c r="E1950" t="n">
-        <v>1034</v>
-      </c>
-      <c r="F1950" t="n">
-        <v>3381.601786502461</v>
-      </c>
+      <c r="B1950" t="inlineStr"/>
+      <c r="C1950" t="inlineStr"/>
+      <c r="D1950" t="inlineStr"/>
+      <c r="E1950" t="inlineStr"/>
+      <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
       <c r="H1950" t="inlineStr"/>
-      <c r="I1950" t="n">
-        <v>3.170416538976315</v>
-      </c>
-      <c r="J1950" t="n">
-        <v>3.208674084581649</v>
-      </c>
-      <c r="K1950" t="n">
-        <v>3.055643902160309</v>
-      </c>
-      <c r="L1950" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M1950" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I1950" t="inlineStr"/>
+      <c r="J1950" t="inlineStr"/>
+      <c r="K1950" t="inlineStr"/>
+      <c r="L1950" t="inlineStr"/>
+      <c r="M1950" t="inlineStr"/>
     </row>
     <row r="1951">
       <c r="A1951" s="1" t="n">
@@ -35858,16 +36226,38 @@
       <c r="A2017" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B2017" t="inlineStr"/>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
-      <c r="H2017" t="inlineStr"/>
-      <c r="I2017" t="inlineStr"/>
-      <c r="J2017" t="inlineStr"/>
-      <c r="K2017" t="inlineStr"/>
+      <c r="B2017" t="n">
+        <v>5.322400470967978</v>
+      </c>
+      <c r="C2017" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2017" t="n">
+        <v>8.924841072401994</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>-624.7388750681396</v>
+      </c>
+      <c r="G2017" t="n">
+        <v>13.38726160860299</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>8.478599018781894</v>
+      </c>
+      <c r="I2017" t="n">
+        <v>8.924841072401994</v>
+      </c>
+      <c r="J2017" t="n">
+        <v>9.261341494026665</v>
+      </c>
+      <c r="K2017" t="n">
+        <v>8.924841072401994</v>
+      </c>
       <c r="L2017" t="inlineStr"/>
       <c r="M2017" t="inlineStr"/>
     </row>
@@ -36215,18 +36605,42 @@
       <c r="A2038" s="1" t="n">
         <v>2036</v>
       </c>
-      <c r="B2038" t="inlineStr"/>
-      <c r="C2038" t="inlineStr"/>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr"/>
-      <c r="F2038" t="inlineStr"/>
+      <c r="B2038" t="n">
+        <v>646.2897451580612</v>
+      </c>
+      <c r="C2038" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2038" t="n">
+        <v>9.156676352672761</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>624.7388750681396</v>
+      </c>
       <c r="G2038" t="inlineStr"/>
       <c r="H2038" t="inlineStr"/>
-      <c r="I2038" t="inlineStr"/>
-      <c r="J2038" t="inlineStr"/>
-      <c r="K2038" t="inlineStr"/>
-      <c r="L2038" t="inlineStr"/>
-      <c r="M2038" t="inlineStr"/>
+      <c r="I2038" t="n">
+        <v>9.022917654746873</v>
+      </c>
+      <c r="J2038" t="n">
+        <v>9.26368382126533</v>
+      </c>
+      <c r="K2038" t="n">
+        <v>9.022917654746873</v>
+      </c>
+      <c r="L2038" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M2038" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2039">
       <c r="A2039" s="1" t="n">
@@ -36385,38 +36799,16 @@
       <c r="A2048" s="1" t="n">
         <v>2046</v>
       </c>
-      <c r="B2048" t="n">
-        <v>0.6096614107209462</v>
-      </c>
-      <c r="C2048" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D2048" t="n">
-        <v>3.567431040872188</v>
-      </c>
-      <c r="E2048" t="n">
-        <v>1798</v>
-      </c>
-      <c r="F2048" t="n">
-        <v>-6414.241011488194</v>
-      </c>
-      <c r="G2048" t="n">
-        <v>5.351146561308282</v>
-      </c>
-      <c r="H2048" t="n">
-        <v>3.389059488828578</v>
-      </c>
-      <c r="I2048" t="n">
-        <v>3.567431040872188</v>
-      </c>
-      <c r="J2048" t="n">
-        <v>3.688917075905485</v>
-      </c>
-      <c r="K2048" t="n">
-        <v>3.498010449424589</v>
-      </c>
+      <c r="B2048" t="inlineStr"/>
+      <c r="C2048" t="inlineStr"/>
+      <c r="D2048" t="inlineStr"/>
+      <c r="E2048" t="inlineStr"/>
+      <c r="F2048" t="inlineStr"/>
+      <c r="G2048" t="inlineStr"/>
+      <c r="H2048" t="inlineStr"/>
+      <c r="I2048" t="inlineStr"/>
+      <c r="J2048" t="inlineStr"/>
+      <c r="K2048" t="inlineStr"/>
       <c r="L2048" t="inlineStr"/>
       <c r="M2048" t="inlineStr"/>
     </row>
@@ -36764,42 +37156,18 @@
       <c r="A2069" s="1" t="n">
         <v>2067</v>
       </c>
-      <c r="B2069" t="n">
-        <v>6560.858021272793</v>
-      </c>
-      <c r="C2069" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D2069" t="n">
-        <v>3.648636462659662</v>
-      </c>
-      <c r="E2069" t="n">
-        <v>1798</v>
-      </c>
-      <c r="F2069" t="n">
-        <v>6414.241011488194</v>
-      </c>
+      <c r="B2069" t="inlineStr"/>
+      <c r="C2069" t="inlineStr"/>
+      <c r="D2069" t="inlineStr"/>
+      <c r="E2069" t="inlineStr"/>
+      <c r="F2069" t="inlineStr"/>
       <c r="G2069" t="inlineStr"/>
       <c r="H2069" t="inlineStr"/>
-      <c r="I2069" t="n">
-        <v>3.605596728883794</v>
-      </c>
-      <c r="J2069" t="n">
-        <v>3.69167619643553</v>
-      </c>
-      <c r="K2069" t="n">
-        <v>3.576903573033215</v>
-      </c>
-      <c r="L2069" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M2069" t="n">
-        <v>2</v>
-      </c>
+      <c r="I2069" t="inlineStr"/>
+      <c r="J2069" t="inlineStr"/>
+      <c r="K2069" t="inlineStr"/>
+      <c r="L2069" t="inlineStr"/>
+      <c r="M2069" t="inlineStr"/>
     </row>
     <row r="2070">
       <c r="A2070" s="1" t="n">
@@ -37094,16 +37462,38 @@
       <c r="A2087" s="1" t="n">
         <v>2085</v>
       </c>
-      <c r="B2087" t="inlineStr"/>
-      <c r="C2087" t="inlineStr"/>
-      <c r="D2087" t="inlineStr"/>
-      <c r="E2087" t="inlineStr"/>
-      <c r="F2087" t="inlineStr"/>
-      <c r="G2087" t="inlineStr"/>
-      <c r="H2087" t="inlineStr"/>
-      <c r="I2087" t="inlineStr"/>
-      <c r="J2087" t="inlineStr"/>
-      <c r="K2087" t="inlineStr"/>
+      <c r="B2087" t="n">
+        <v>3.275935909619875</v>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2087" t="n">
+        <v>9.056532524625934</v>
+      </c>
+      <c r="E2087" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>-643.0138092484414</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>13.5847987869389</v>
+      </c>
+      <c r="H2087" t="n">
+        <v>8.603705898394637</v>
+      </c>
+      <c r="I2087" t="n">
+        <v>9.056532524625934</v>
+      </c>
+      <c r="J2087" t="n">
+        <v>9.228836018726259</v>
+      </c>
+      <c r="K2087" t="n">
+        <v>8.915557617557146</v>
+      </c>
       <c r="L2087" t="inlineStr"/>
       <c r="M2087" t="inlineStr"/>
     </row>
@@ -37111,18 +37501,42 @@
       <c r="A2088" s="1" t="n">
         <v>2086</v>
       </c>
-      <c r="B2088" t="inlineStr"/>
-      <c r="C2088" t="inlineStr"/>
-      <c r="D2088" t="inlineStr"/>
-      <c r="E2088" t="inlineStr"/>
-      <c r="F2088" t="inlineStr"/>
+      <c r="B2088" t="n">
+        <v>614.1390546956391</v>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2088" t="n">
+        <v>8.603705898394637</v>
+      </c>
+      <c r="E2088" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>643.0138092484414</v>
+      </c>
       <c r="G2088" t="inlineStr"/>
       <c r="H2088" t="inlineStr"/>
-      <c r="I2088" t="inlineStr"/>
-      <c r="J2088" t="inlineStr"/>
-      <c r="K2088" t="inlineStr"/>
-      <c r="L2088" t="inlineStr"/>
-      <c r="M2088" t="inlineStr"/>
+      <c r="I2088" t="n">
+        <v>8.805909803690644</v>
+      </c>
+      <c r="J2088" t="n">
+        <v>9.025204684509024</v>
+      </c>
+      <c r="K2088" t="n">
+        <v>8.398647135256171</v>
+      </c>
+      <c r="L2088" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M2088" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="2089">
       <c r="A2089" s="1" t="n">
@@ -38046,16 +38460,38 @@
       <c r="A2143" s="1" t="n">
         <v>2141</v>
       </c>
-      <c r="B2143" t="inlineStr"/>
-      <c r="C2143" t="inlineStr"/>
-      <c r="D2143" t="inlineStr"/>
-      <c r="E2143" t="inlineStr"/>
-      <c r="F2143" t="inlineStr"/>
-      <c r="G2143" t="inlineStr"/>
-      <c r="H2143" t="inlineStr"/>
-      <c r="I2143" t="inlineStr"/>
-      <c r="J2143" t="inlineStr"/>
-      <c r="K2143" t="inlineStr"/>
+      <c r="B2143" t="n">
+        <v>5.009869138685758</v>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2143" t="n">
+        <v>8.957782140543431</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>-609.1291855569533</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>13.43667321081515</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>8.50989303351626</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>8.957782140543431</v>
+      </c>
+      <c r="J2143" t="n">
+        <v>9.113058834953335</v>
+      </c>
+      <c r="K2143" t="n">
+        <v>8.957782140543431</v>
+      </c>
       <c r="L2143" t="inlineStr"/>
       <c r="M2143" t="inlineStr"/>
     </row>
@@ -38403,18 +38839,42 @@
       <c r="A2164" s="1" t="n">
         <v>2162</v>
       </c>
-      <c r="B2164" t="inlineStr"/>
-      <c r="C2164" t="inlineStr"/>
-      <c r="D2164" t="inlineStr"/>
-      <c r="E2164" t="inlineStr"/>
-      <c r="F2164" t="inlineStr"/>
+      <c r="B2164" t="n">
+        <v>678.004110203188</v>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2164" t="n">
+        <v>9.896974133301503</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>609.1291855569533</v>
+      </c>
       <c r="G2164" t="inlineStr"/>
       <c r="H2164" t="inlineStr"/>
-      <c r="I2164" t="inlineStr"/>
-      <c r="J2164" t="inlineStr"/>
-      <c r="K2164" t="inlineStr"/>
-      <c r="L2164" t="inlineStr"/>
-      <c r="M2164" t="inlineStr"/>
+      <c r="I2164" t="n">
+        <v>9.788751193650347</v>
+      </c>
+      <c r="J2164" t="n">
+        <v>9.940263515582021</v>
+      </c>
+      <c r="K2164" t="n">
+        <v>9.658882014708499</v>
+      </c>
+      <c r="L2164" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M2164" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
@@ -39219,38 +39679,16 @@
       <c r="A2212" s="1" t="n">
         <v>2210</v>
       </c>
-      <c r="B2212" t="n">
-        <v>1.260014334013249</v>
-      </c>
-      <c r="C2212" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D2212" t="n">
-        <v>3.376015443612342</v>
-      </c>
-      <c r="E2212" t="n">
-        <v>1943</v>
-      </c>
-      <c r="F2212" t="n">
-        <v>-6559.59800693878</v>
-      </c>
-      <c r="G2212" t="n">
-        <v>5.064023165418512</v>
-      </c>
-      <c r="H2212" t="n">
-        <v>3.207214671431724</v>
-      </c>
-      <c r="I2212" t="n">
-        <v>3.376015443612342</v>
-      </c>
-      <c r="J2212" t="n">
-        <v>3.49969588766462</v>
-      </c>
-      <c r="K2212" t="n">
-        <v>3.353528138888258</v>
-      </c>
+      <c r="B2212" t="inlineStr"/>
+      <c r="C2212" t="inlineStr"/>
+      <c r="D2212" t="inlineStr"/>
+      <c r="E2212" t="inlineStr"/>
+      <c r="F2212" t="inlineStr"/>
+      <c r="G2212" t="inlineStr"/>
+      <c r="H2212" t="inlineStr"/>
+      <c r="I2212" t="inlineStr"/>
+      <c r="J2212" t="inlineStr"/>
+      <c r="K2212" t="inlineStr"/>
       <c r="L2212" t="inlineStr"/>
       <c r="M2212" t="inlineStr"/>
     </row>
@@ -39598,42 +40036,18 @@
       <c r="A2233" s="1" t="n">
         <v>2231</v>
       </c>
-      <c r="B2233" t="n">
-        <v>7344.784349825652</v>
-      </c>
-      <c r="C2233" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D2233" t="n">
-        <v>3.779477269939083</v>
-      </c>
-      <c r="E2233" t="n">
-        <v>1943</v>
-      </c>
-      <c r="F2233" t="n">
-        <v>6559.59800693878</v>
-      </c>
+      <c r="B2233" t="inlineStr"/>
+      <c r="C2233" t="inlineStr"/>
+      <c r="D2233" t="inlineStr"/>
+      <c r="E2233" t="inlineStr"/>
+      <c r="F2233" t="inlineStr"/>
       <c r="G2233" t="inlineStr"/>
       <c r="H2233" t="inlineStr"/>
-      <c r="I2233" t="n">
-        <v>3.649401617313294</v>
-      </c>
-      <c r="J2233" t="n">
-        <v>3.792484835201662</v>
-      </c>
-      <c r="K2233" t="n">
-        <v>3.649401617313294</v>
-      </c>
-      <c r="L2233" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M2233" t="n">
-        <v>12</v>
-      </c>
+      <c r="I2233" t="inlineStr"/>
+      <c r="J2233" t="inlineStr"/>
+      <c r="K2233" t="inlineStr"/>
+      <c r="L2233" t="inlineStr"/>
+      <c r="M2233" t="inlineStr"/>
     </row>
     <row r="2234">
       <c r="A2234" s="1" t="n">
@@ -40217,16 +40631,38 @@
       <c r="A2268" s="1" t="n">
         <v>2266</v>
       </c>
-      <c r="B2268" t="inlineStr"/>
-      <c r="C2268" t="inlineStr"/>
-      <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr"/>
-      <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr"/>
-      <c r="I2268" t="inlineStr"/>
-      <c r="J2268" t="inlineStr"/>
-      <c r="K2268" t="inlineStr"/>
+      <c r="B2268" t="n">
+        <v>7.038246393196005</v>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2268" t="n">
+        <v>8.713842387142753</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>-670.965863809992</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>13.07076358071413</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>8.278150267785614</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>8.713842387142753</v>
+      </c>
+      <c r="J2268" t="n">
+        <v>9.056516511507137</v>
+      </c>
+      <c r="K2268" t="n">
+        <v>8.6757674844356</v>
+      </c>
       <c r="L2268" t="inlineStr"/>
       <c r="M2268" t="inlineStr"/>
     </row>
@@ -40268,18 +40704,42 @@
       <c r="A2271" s="1" t="n">
         <v>2269</v>
       </c>
-      <c r="B2271" t="inlineStr"/>
-      <c r="C2271" t="inlineStr"/>
-      <c r="D2271" t="inlineStr"/>
-      <c r="E2271" t="inlineStr"/>
-      <c r="F2271" t="inlineStr"/>
+      <c r="B2271" t="n">
+        <v>644.4558170126883</v>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2271" t="n">
+        <v>8.278150267785614</v>
+      </c>
+      <c r="E2271" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>670.965863809992</v>
+      </c>
       <c r="G2271" t="inlineStr"/>
       <c r="H2271" t="inlineStr"/>
-      <c r="I2271" t="inlineStr"/>
-      <c r="J2271" t="inlineStr"/>
-      <c r="K2271" t="inlineStr"/>
-      <c r="L2271" t="inlineStr"/>
-      <c r="M2271" t="inlineStr"/>
+      <c r="I2271" t="n">
+        <v>8.694805389677819</v>
+      </c>
+      <c r="J2271" t="n">
+        <v>8.713842387142753</v>
+      </c>
+      <c r="K2271" t="n">
+        <v>8.199830746707535</v>
+      </c>
+      <c r="L2271" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M2271" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="2272">
       <c r="A2272" s="1" t="n">
@@ -40302,16 +40762,38 @@
       <c r="A2273" s="1" t="n">
         <v>2271</v>
       </c>
-      <c r="B2273" t="inlineStr"/>
-      <c r="C2273" t="inlineStr"/>
-      <c r="D2273" t="inlineStr"/>
-      <c r="E2273" t="inlineStr"/>
-      <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr"/>
-      <c r="H2273" t="inlineStr"/>
-      <c r="I2273" t="inlineStr"/>
-      <c r="J2273" t="inlineStr"/>
-      <c r="K2273" t="inlineStr"/>
+      <c r="B2273" t="n">
+        <v>6.955555668585134</v>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2273" t="n">
+        <v>8.732880292384975</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>-637.5002613441031</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>13.09932043857746</v>
+      </c>
+      <c r="H2273" t="n">
+        <v>8.296236277765725</v>
+      </c>
+      <c r="I2273" t="n">
+        <v>8.732880292384975</v>
+      </c>
+      <c r="J2273" t="n">
+        <v>9.075554416749357</v>
+      </c>
+      <c r="K2273" t="n">
+        <v>8.637692581728446</v>
+      </c>
       <c r="L2273" t="inlineStr"/>
       <c r="M2273" t="inlineStr"/>
     </row>
@@ -40659,18 +41141,42 @@
       <c r="A2294" s="1" t="n">
         <v>2292</v>
       </c>
-      <c r="B2294" t="inlineStr"/>
-      <c r="C2294" t="inlineStr"/>
-      <c r="D2294" t="inlineStr"/>
-      <c r="E2294" t="inlineStr"/>
-      <c r="F2294" t="inlineStr"/>
+      <c r="B2294" t="n">
+        <v>706.7528921497649</v>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2294" t="n">
+        <v>9.586264883303832</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>637.5002613441031</v>
+      </c>
       <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr"/>
-      <c r="I2294" t="inlineStr"/>
-      <c r="J2294" t="inlineStr"/>
-      <c r="K2294" t="inlineStr"/>
-      <c r="L2294" t="inlineStr"/>
-      <c r="M2294" t="inlineStr"/>
+      <c r="I2294" t="n">
+        <v>9.660656941794697</v>
+      </c>
+      <c r="J2294" t="n">
+        <v>9.828038629987505</v>
+      </c>
+      <c r="K2294" t="n">
+        <v>9.4932743667786</v>
+      </c>
+      <c r="L2294" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M2294" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2295">
       <c r="A2295" s="1" t="n">
@@ -41067,38 +41573,16 @@
       <c r="A2318" s="1" t="n">
         <v>2316</v>
       </c>
-      <c r="B2318" t="n">
-        <v>0.4795426642322127</v>
-      </c>
-      <c r="C2318" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D2318" t="n">
-        <v>3.299328305103962</v>
-      </c>
-      <c r="E2318" t="n">
-        <v>2226</v>
-      </c>
-      <c r="F2318" t="n">
-        <v>-7344.304807161419</v>
-      </c>
-      <c r="G2318" t="n">
-        <v>4.948992457655943</v>
-      </c>
-      <c r="H2318" t="n">
-        <v>3.134361889848764</v>
-      </c>
-      <c r="I2318" t="n">
-        <v>3.299328305103962</v>
-      </c>
-      <c r="J2318" t="n">
-        <v>3.405368230516068</v>
-      </c>
-      <c r="K2318" t="n">
-        <v>3.278120320021541</v>
-      </c>
+      <c r="B2318" t="inlineStr"/>
+      <c r="C2318" t="inlineStr"/>
+      <c r="D2318" t="inlineStr"/>
+      <c r="E2318" t="inlineStr"/>
+      <c r="F2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr"/>
+      <c r="H2318" t="inlineStr"/>
+      <c r="I2318" t="inlineStr"/>
+      <c r="J2318" t="inlineStr"/>
+      <c r="K2318" t="inlineStr"/>
       <c r="L2318" t="inlineStr"/>
       <c r="M2318" t="inlineStr"/>
     </row>
@@ -41446,42 +41930,18 @@
       <c r="A2339" s="1" t="n">
         <v>2337</v>
       </c>
-      <c r="B2339" t="n">
-        <v>8586.40104792159</v>
-      </c>
-      <c r="C2339" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D2339" t="n">
-        <v>3.857107594455238</v>
-      </c>
-      <c r="E2339" t="n">
-        <v>2226</v>
-      </c>
-      <c r="F2339" t="n">
-        <v>7344.304807161419</v>
-      </c>
+      <c r="B2339" t="inlineStr"/>
+      <c r="C2339" t="inlineStr"/>
+      <c r="D2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr"/>
+      <c r="F2339" t="inlineStr"/>
       <c r="G2339" t="inlineStr"/>
       <c r="H2339" t="inlineStr"/>
-      <c r="I2339" t="n">
-        <v>3.828168674411017</v>
-      </c>
-      <c r="J2339" t="n">
-        <v>3.857107594455238</v>
-      </c>
-      <c r="K2339" t="n">
-        <v>3.712412649254994</v>
-      </c>
-      <c r="L2339" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M2339" t="n">
-        <v>17</v>
-      </c>
+      <c r="I2339" t="inlineStr"/>
+      <c r="J2339" t="inlineStr"/>
+      <c r="K2339" t="inlineStr"/>
+      <c r="L2339" t="inlineStr"/>
+      <c r="M2339" t="inlineStr"/>
     </row>
     <row r="2340">
       <c r="A2340" s="1" t="n">
@@ -42813,16 +43273,38 @@
       <c r="A2418" s="1" t="n">
         <v>2416</v>
       </c>
-      <c r="B2418" t="inlineStr"/>
-      <c r="C2418" t="inlineStr"/>
-      <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr"/>
-      <c r="F2418" t="inlineStr"/>
-      <c r="G2418" t="inlineStr"/>
-      <c r="H2418" t="inlineStr"/>
-      <c r="I2418" t="inlineStr"/>
-      <c r="J2418" t="inlineStr"/>
-      <c r="K2418" t="inlineStr"/>
+      <c r="B2418" t="n">
+        <v>5.97528803981379</v>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2418" t="n">
+        <v>8.651575359382113</v>
+      </c>
+      <c r="E2418" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>-700.7776041099511</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>12.97736303907317</v>
+      </c>
+      <c r="H2418" t="n">
+        <v>8.218996591413006</v>
+      </c>
+      <c r="I2418" t="n">
+        <v>8.651575359382113</v>
+      </c>
+      <c r="J2418" t="n">
+        <v>9.013848448258196</v>
+      </c>
+      <c r="K2418" t="n">
+        <v>8.493811375650409</v>
+      </c>
       <c r="L2418" t="inlineStr"/>
       <c r="M2418" t="inlineStr"/>
     </row>
@@ -43000,38 +43482,16 @@
       <c r="A2429" s="1" t="n">
         <v>2427</v>
       </c>
-      <c r="B2429" t="n">
-        <v>1.127054771344774</v>
-      </c>
-      <c r="C2429" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D2429" t="n">
-        <v>3.651754144257867</v>
-      </c>
-      <c r="E2429" t="n">
-        <v>2351</v>
-      </c>
-      <c r="F2429" t="n">
-        <v>-8585.273993150246</v>
-      </c>
-      <c r="G2429" t="n">
-        <v>5.477631216386801</v>
-      </c>
-      <c r="H2429" t="n">
-        <v>3.469166437044974</v>
-      </c>
-      <c r="I2429" t="n">
-        <v>3.651754144257867</v>
-      </c>
-      <c r="J2429" t="n">
-        <v>3.798283282717204</v>
-      </c>
-      <c r="K2429" t="n">
-        <v>3.559747445692295</v>
-      </c>
+      <c r="B2429" t="inlineStr"/>
+      <c r="C2429" t="inlineStr"/>
+      <c r="D2429" t="inlineStr"/>
+      <c r="E2429" t="inlineStr"/>
+      <c r="F2429" t="inlineStr"/>
+      <c r="G2429" t="inlineStr"/>
+      <c r="H2429" t="inlineStr"/>
+      <c r="I2429" t="inlineStr"/>
+      <c r="J2429" t="inlineStr"/>
+      <c r="K2429" t="inlineStr"/>
       <c r="L2429" t="inlineStr"/>
       <c r="M2429" t="inlineStr"/>
     </row>
@@ -43192,18 +43652,42 @@
       <c r="A2439" s="1" t="n">
         <v>2437</v>
       </c>
-      <c r="B2439" t="inlineStr"/>
-      <c r="C2439" t="inlineStr"/>
-      <c r="D2439" t="inlineStr"/>
-      <c r="E2439" t="inlineStr"/>
-      <c r="F2439" t="inlineStr"/>
+      <c r="B2439" t="n">
+        <v>817.9252339137412</v>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2439" t="n">
+        <v>10.02407340585096</v>
+      </c>
+      <c r="E2439" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>700.7776041099511</v>
+      </c>
       <c r="G2439" t="inlineStr"/>
       <c r="H2439" t="inlineStr"/>
-      <c r="I2439" t="inlineStr"/>
-      <c r="J2439" t="inlineStr"/>
-      <c r="K2439" t="inlineStr"/>
-      <c r="L2439" t="inlineStr"/>
-      <c r="M2439" t="inlineStr"/>
+      <c r="I2439" t="n">
+        <v>9.933076631198288</v>
+      </c>
+      <c r="J2439" t="n">
+        <v>10.18180010721078</v>
+      </c>
+      <c r="K2439" t="n">
+        <v>9.848147002436779</v>
+      </c>
+      <c r="L2439" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M2439" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="2440">
       <c r="A2440" s="1" t="n">
@@ -43379,42 +43863,18 @@
       <c r="A2450" s="1" t="n">
         <v>2448</v>
       </c>
-      <c r="B2450" t="n">
-        <v>8876.71193954718</v>
-      </c>
-      <c r="C2450" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D2450" t="n">
-        <v>3.775238147501419</v>
-      </c>
-      <c r="E2450" t="n">
-        <v>2351</v>
-      </c>
-      <c r="F2450" t="n">
-        <v>8585.273993150246</v>
-      </c>
+      <c r="B2450" t="inlineStr"/>
+      <c r="C2450" t="inlineStr"/>
+      <c r="D2450" t="inlineStr"/>
+      <c r="E2450" t="inlineStr"/>
+      <c r="F2450" t="inlineStr"/>
       <c r="G2450" t="inlineStr"/>
       <c r="H2450" t="inlineStr"/>
-      <c r="I2450" t="n">
-        <v>3.818717604902546</v>
-      </c>
-      <c r="J2450" t="n">
-        <v>3.845892184791615</v>
-      </c>
-      <c r="K2450" t="n">
-        <v>3.761650922346194</v>
-      </c>
-      <c r="L2450" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M2450" t="n">
-        <v>3</v>
-      </c>
+      <c r="I2450" t="inlineStr"/>
+      <c r="J2450" t="inlineStr"/>
+      <c r="K2450" t="inlineStr"/>
+      <c r="L2450" t="inlineStr"/>
+      <c r="M2450" t="inlineStr"/>
     </row>
     <row r="2451">
       <c r="A2451" s="1" t="n">
@@ -44423,16 +44883,38 @@
       <c r="A2510" s="1" t="n">
         <v>2508</v>
       </c>
-      <c r="B2510" t="inlineStr"/>
-      <c r="C2510" t="inlineStr"/>
-      <c r="D2510" t="inlineStr"/>
-      <c r="E2510" t="inlineStr"/>
-      <c r="F2510" t="inlineStr"/>
-      <c r="G2510" t="inlineStr"/>
-      <c r="H2510" t="inlineStr"/>
-      <c r="I2510" t="inlineStr"/>
-      <c r="J2510" t="inlineStr"/>
-      <c r="K2510" t="inlineStr"/>
+      <c r="B2510" t="n">
+        <v>8.083124051355867</v>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2510" t="n">
+        <v>8.348887730540055</v>
+      </c>
+      <c r="E2510" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>-809.8421098623853</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>12.52333159581008</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>7.931443344013052</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>8.348887730540055</v>
+      </c>
+      <c r="J2510" t="n">
+        <v>8.401122286350338</v>
+      </c>
+      <c r="K2510" t="n">
+        <v>8.296653530548573</v>
+      </c>
       <c r="L2510" t="inlineStr"/>
       <c r="M2510" t="inlineStr"/>
     </row>
@@ -44678,18 +45160,42 @@
       <c r="A2525" s="1" t="n">
         <v>2523</v>
       </c>
-      <c r="B2525" t="inlineStr"/>
-      <c r="C2525" t="inlineStr"/>
-      <c r="D2525" t="inlineStr"/>
-      <c r="E2525" t="inlineStr"/>
-      <c r="F2525" t="inlineStr"/>
+      <c r="B2525" t="n">
+        <v>777.4331284206219</v>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2525" t="n">
+        <v>7.931443344013052</v>
+      </c>
+      <c r="E2525" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>809.8421098623853</v>
+      </c>
       <c r="G2525" t="inlineStr"/>
       <c r="H2525" t="inlineStr"/>
-      <c r="I2525" t="inlineStr"/>
-      <c r="J2525" t="inlineStr"/>
-      <c r="K2525" t="inlineStr"/>
-      <c r="L2525" t="inlineStr"/>
-      <c r="M2525" t="inlineStr"/>
+      <c r="I2525" t="n">
+        <v>8.248480030688263</v>
+      </c>
+      <c r="J2525" t="n">
+        <v>8.322091119582172</v>
+      </c>
+      <c r="K2525" t="n">
+        <v>7.892692808529906</v>
+      </c>
+      <c r="L2525" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M2525" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="2526">
       <c r="A2526" s="1" t="n">
@@ -44848,16 +45354,38 @@
       <c r="A2535" s="1" t="n">
         <v>2533</v>
       </c>
-      <c r="B2535" t="inlineStr"/>
-      <c r="C2535" t="inlineStr"/>
-      <c r="D2535" t="inlineStr"/>
-      <c r="E2535" t="inlineStr"/>
-      <c r="F2535" t="inlineStr"/>
-      <c r="G2535" t="inlineStr"/>
-      <c r="H2535" t="inlineStr"/>
-      <c r="I2535" t="inlineStr"/>
-      <c r="J2535" t="inlineStr"/>
-      <c r="K2535" t="inlineStr"/>
+      <c r="B2535" t="n">
+        <v>5.054680814281483</v>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2535" t="n">
+        <v>8.58198275118156</v>
+      </c>
+      <c r="E2535" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>-772.3784476063404</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>12.87297412677234</v>
+      </c>
+      <c r="H2535" t="n">
+        <v>8.152883613622482</v>
+      </c>
+      <c r="I2535" t="n">
+        <v>8.58198275118156</v>
+      </c>
+      <c r="J2535" t="n">
+        <v>9.222819734089288</v>
+      </c>
+      <c r="K2535" t="n">
+        <v>8.520950726862644</v>
+      </c>
       <c r="L2535" t="inlineStr"/>
       <c r="M2535" t="inlineStr"/>
     </row>
@@ -44967,18 +45495,42 @@
       <c r="A2542" s="1" t="n">
         <v>2540</v>
       </c>
-      <c r="B2542" t="inlineStr"/>
-      <c r="C2542" t="inlineStr"/>
-      <c r="D2542" t="inlineStr"/>
-      <c r="E2542" t="inlineStr"/>
-      <c r="F2542" t="inlineStr"/>
+      <c r="B2542" t="n">
+        <v>738.8142060403048</v>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2542" t="n">
+        <v>8.152883613622482</v>
+      </c>
+      <c r="E2542" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>772.3784476063404</v>
+      </c>
       <c r="G2542" t="inlineStr"/>
       <c r="H2542" t="inlineStr"/>
-      <c r="I2542" t="inlineStr"/>
-      <c r="J2542" t="inlineStr"/>
-      <c r="K2542" t="inlineStr"/>
-      <c r="L2542" t="inlineStr"/>
-      <c r="M2542" t="inlineStr"/>
+      <c r="I2542" t="n">
+        <v>8.589882287349671</v>
+      </c>
+      <c r="J2542" t="n">
+        <v>8.658397857067774</v>
+      </c>
+      <c r="K2542" t="n">
+        <v>8.127401783367464</v>
+      </c>
+      <c r="L2542" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M2542" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="2543">
       <c r="A2543" s="1" t="n">
@@ -45562,16 +46114,38 @@
       <c r="A2577" s="1" t="n">
         <v>2575</v>
       </c>
-      <c r="B2577" t="inlineStr"/>
-      <c r="C2577" t="inlineStr"/>
-      <c r="D2577" t="inlineStr"/>
-      <c r="E2577" t="inlineStr"/>
-      <c r="F2577" t="inlineStr"/>
-      <c r="G2577" t="inlineStr"/>
-      <c r="H2577" t="inlineStr"/>
-      <c r="I2577" t="inlineStr"/>
-      <c r="J2577" t="inlineStr"/>
-      <c r="K2577" t="inlineStr"/>
+      <c r="B2577" t="n">
+        <v>1.798588207855914</v>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2577" t="n">
+        <v>8.773995450386296</v>
+      </c>
+      <c r="E2577" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>-737.0156178324489</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>13.16099317557945</v>
+      </c>
+      <c r="H2577" t="n">
+        <v>8.335295677866981</v>
+      </c>
+      <c r="I2577" t="n">
+        <v>8.773995450386296</v>
+      </c>
+      <c r="J2577" t="n">
+        <v>9.245086078514838</v>
+      </c>
+      <c r="K2577" t="n">
+        <v>8.697602424780408</v>
+      </c>
       <c r="L2577" t="inlineStr"/>
       <c r="M2577" t="inlineStr"/>
     </row>
@@ -45919,18 +46493,42 @@
       <c r="A2598" s="1" t="n">
         <v>2596</v>
       </c>
-      <c r="B2598" t="inlineStr"/>
-      <c r="C2598" t="inlineStr"/>
-      <c r="D2598" t="inlineStr"/>
-      <c r="E2598" t="inlineStr"/>
-      <c r="F2598" t="inlineStr"/>
+      <c r="B2598" t="n">
+        <v>816.6411694997742</v>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2598" t="n">
+        <v>9.700506920141883</v>
+      </c>
+      <c r="E2598" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>737.0156178324489</v>
+      </c>
       <c r="G2598" t="inlineStr"/>
       <c r="H2598" t="inlineStr"/>
-      <c r="I2598" t="inlineStr"/>
-      <c r="J2598" t="inlineStr"/>
-      <c r="K2598" t="inlineStr"/>
-      <c r="L2598" t="inlineStr"/>
-      <c r="M2598" t="inlineStr"/>
+      <c r="I2598" t="n">
+        <v>9.201013237095312</v>
+      </c>
+      <c r="J2598" t="n">
+        <v>9.733806446083436</v>
+      </c>
+      <c r="K2598" t="n">
+        <v>9.167713711153763</v>
+      </c>
+      <c r="L2598" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M2598" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2599">
       <c r="A2599" s="1" t="n">
@@ -47364,38 +47962,16 @@
       <c r="A2683" s="1" t="n">
         <v>2681</v>
       </c>
-      <c r="B2683" t="n">
-        <v>2.421777676365309</v>
-      </c>
-      <c r="C2683" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D2683" t="n">
-        <v>3.348788740328609</v>
-      </c>
-      <c r="E2683" t="n">
-        <v>2650</v>
-      </c>
-      <c r="F2683" t="n">
-        <v>-8874.290161870815</v>
-      </c>
-      <c r="G2683" t="n">
-        <v>5.023183110492914</v>
-      </c>
-      <c r="H2683" t="n">
-        <v>3.181349303312179</v>
-      </c>
-      <c r="I2683" t="n">
-        <v>3.348788740328609</v>
-      </c>
-      <c r="J2683" t="n">
-        <v>3.499287361291169</v>
-      </c>
-      <c r="K2683" t="n">
-        <v>3.34251781494808</v>
-      </c>
+      <c r="B2683" t="inlineStr"/>
+      <c r="C2683" t="inlineStr"/>
+      <c r="D2683" t="inlineStr"/>
+      <c r="E2683" t="inlineStr"/>
+      <c r="F2683" t="inlineStr"/>
+      <c r="G2683" t="inlineStr"/>
+      <c r="H2683" t="inlineStr"/>
+      <c r="I2683" t="inlineStr"/>
+      <c r="J2683" t="inlineStr"/>
+      <c r="K2683" t="inlineStr"/>
       <c r="L2683" t="inlineStr"/>
       <c r="M2683" t="inlineStr"/>
     </row>
@@ -47743,57 +48319,55 @@
       <c r="A2704" s="1" t="n">
         <v>2702</v>
       </c>
-      <c r="B2704" t="n">
-        <v>9960.376861048808</v>
-      </c>
-      <c r="C2704" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D2704" t="n">
-        <v>3.757718899385827</v>
-      </c>
-      <c r="E2704" t="n">
-        <v>2650</v>
-      </c>
-      <c r="F2704" t="n">
-        <v>8874.290161870815</v>
-      </c>
+      <c r="B2704" t="inlineStr"/>
+      <c r="C2704" t="inlineStr"/>
+      <c r="D2704" t="inlineStr"/>
+      <c r="E2704" t="inlineStr"/>
+      <c r="F2704" t="inlineStr"/>
       <c r="G2704" t="inlineStr"/>
       <c r="H2704" t="inlineStr"/>
-      <c r="I2704" t="n">
-        <v>3.715287290444561</v>
-      </c>
-      <c r="J2704" t="n">
-        <v>3.766205463971083</v>
-      </c>
-      <c r="K2704" t="n">
-        <v>3.698314565935721</v>
-      </c>
-      <c r="L2704" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M2704" t="n">
-        <v>12</v>
-      </c>
+      <c r="I2704" t="inlineStr"/>
+      <c r="J2704" t="inlineStr"/>
+      <c r="K2704" t="inlineStr"/>
+      <c r="L2704" t="inlineStr"/>
+      <c r="M2704" t="inlineStr"/>
     </row>
     <row r="2705">
       <c r="A2705" s="1" t="n">
         <v>2703</v>
       </c>
-      <c r="B2705" t="inlineStr"/>
-      <c r="C2705" t="inlineStr"/>
-      <c r="D2705" t="inlineStr"/>
-      <c r="E2705" t="inlineStr"/>
-      <c r="F2705" t="inlineStr"/>
-      <c r="G2705" t="inlineStr"/>
-      <c r="H2705" t="inlineStr"/>
-      <c r="I2705" t="inlineStr"/>
-      <c r="J2705" t="inlineStr"/>
-      <c r="K2705" t="inlineStr"/>
+      <c r="B2705" t="n">
+        <v>3.501222272415021</v>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2705" t="n">
+        <v>8.559367865551149</v>
+      </c>
+      <c r="E2705" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>-813.1399472273591</v>
+      </c>
+      <c r="G2705" t="n">
+        <v>12.83905179832672</v>
+      </c>
+      <c r="H2705" t="n">
+        <v>8.131399472273591</v>
+      </c>
+      <c r="I2705" t="n">
+        <v>8.559367865551149</v>
+      </c>
+      <c r="J2705" t="n">
+        <v>8.839475595495122</v>
+      </c>
+      <c r="K2705" t="n">
+        <v>8.499344303542081</v>
+      </c>
       <c r="L2705" t="inlineStr"/>
       <c r="M2705" t="inlineStr"/>
     </row>
@@ -48141,18 +48715,42 @@
       <c r="A2726" s="1" t="n">
         <v>2724</v>
       </c>
-      <c r="B2726" t="inlineStr"/>
-      <c r="C2726" t="inlineStr"/>
-      <c r="D2726" t="inlineStr"/>
-      <c r="E2726" t="inlineStr"/>
-      <c r="F2726" t="inlineStr"/>
+      <c r="B2726" t="n">
+        <v>951.5579616725795</v>
+      </c>
+      <c r="C2726" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2726" t="n">
+        <v>9.979544625264889</v>
+      </c>
+      <c r="E2726" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2726" t="n">
+        <v>813.1399472273591</v>
+      </c>
       <c r="G2726" t="inlineStr"/>
       <c r="H2726" t="inlineStr"/>
-      <c r="I2726" t="inlineStr"/>
-      <c r="J2726" t="inlineStr"/>
-      <c r="K2726" t="inlineStr"/>
-      <c r="L2726" t="inlineStr"/>
-      <c r="M2726" t="inlineStr"/>
+      <c r="I2726" t="n">
+        <v>9.692952360457951</v>
+      </c>
+      <c r="J2726" t="n">
+        <v>10.06772669886499</v>
+      </c>
+      <c r="K2726" t="n">
+        <v>9.670907367664544</v>
+      </c>
+      <c r="L2726" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M2726" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="2727">
       <c r="A2727" s="1" t="n">
@@ -49161,16 +49759,38 @@
       <c r="A2786" s="1" t="n">
         <v>2784</v>
       </c>
-      <c r="B2786" t="inlineStr"/>
-      <c r="C2786" t="inlineStr"/>
-      <c r="D2786" t="inlineStr"/>
-      <c r="E2786" t="inlineStr"/>
-      <c r="F2786" t="inlineStr"/>
-      <c r="G2786" t="inlineStr"/>
-      <c r="H2786" t="inlineStr"/>
-      <c r="I2786" t="inlineStr"/>
-      <c r="J2786" t="inlineStr"/>
-      <c r="K2786" t="inlineStr"/>
+      <c r="B2786" t="n">
+        <v>8.642516280366067</v>
+      </c>
+      <c r="C2786" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2786" t="n">
+        <v>8.980147098973461</v>
+      </c>
+      <c r="E2786" t="n">
+        <v>105</v>
+      </c>
+      <c r="F2786" t="n">
+        <v>-942.9154453922134</v>
+      </c>
+      <c r="G2786" t="n">
+        <v>13.47022064846019</v>
+      </c>
+      <c r="H2786" t="n">
+        <v>8.531139744024788</v>
+      </c>
+      <c r="I2786" t="n">
+        <v>8.980147098973461</v>
+      </c>
+      <c r="J2786" t="n">
+        <v>8.994843756509859</v>
+      </c>
+      <c r="K2786" t="n">
+        <v>8.686206239350687</v>
+      </c>
       <c r="L2786" t="inlineStr"/>
       <c r="M2786" t="inlineStr"/>
     </row>
@@ -49195,18 +49815,42 @@
       <c r="A2788" s="1" t="n">
         <v>2786</v>
       </c>
-      <c r="B2788" t="inlineStr"/>
-      <c r="C2788" t="inlineStr"/>
-      <c r="D2788" t="inlineStr"/>
-      <c r="E2788" t="inlineStr"/>
-      <c r="F2788" t="inlineStr"/>
+      <c r="B2788" t="n">
+        <v>904.4121894029688</v>
+      </c>
+      <c r="C2788" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2788" t="n">
+        <v>8.531139744024788</v>
+      </c>
+      <c r="E2788" t="n">
+        <v>105</v>
+      </c>
+      <c r="F2788" t="n">
+        <v>942.9154453922134</v>
+      </c>
       <c r="G2788" t="inlineStr"/>
       <c r="H2788" t="inlineStr"/>
-      <c r="I2788" t="inlineStr"/>
-      <c r="J2788" t="inlineStr"/>
-      <c r="K2788" t="inlineStr"/>
-      <c r="L2788" t="inlineStr"/>
-      <c r="M2788" t="inlineStr"/>
+      <c r="I2788" t="n">
+        <v>8.642115565932873</v>
+      </c>
+      <c r="J2788" t="n">
+        <v>8.686206239350687</v>
+      </c>
+      <c r="K2788" t="n">
+        <v>8.377568722191514</v>
+      </c>
+      <c r="L2788" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M2788" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="2789">
       <c r="A2789" s="1" t="n">
@@ -49297,16 +49941,38 @@
       <c r="A2794" s="1" t="n">
         <v>2792</v>
       </c>
-      <c r="B2794" t="inlineStr"/>
-      <c r="C2794" t="inlineStr"/>
-      <c r="D2794" t="inlineStr"/>
-      <c r="E2794" t="inlineStr"/>
-      <c r="F2794" t="inlineStr"/>
-      <c r="G2794" t="inlineStr"/>
-      <c r="H2794" t="inlineStr"/>
-      <c r="I2794" t="inlineStr"/>
-      <c r="J2794" t="inlineStr"/>
-      <c r="K2794" t="inlineStr"/>
+      <c r="B2794" t="n">
+        <v>5.632170545950089</v>
+      </c>
+      <c r="C2794" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2794" t="n">
+        <v>8.642115565932873</v>
+      </c>
+      <c r="E2794" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2794" t="n">
+        <v>-898.7800188570187</v>
+      </c>
+      <c r="G2794" t="n">
+        <v>12.96317334889931</v>
+      </c>
+      <c r="H2794" t="n">
+        <v>8.210009787636228</v>
+      </c>
+      <c r="I2794" t="n">
+        <v>8.642115565932873</v>
+      </c>
+      <c r="J2794" t="n">
+        <v>8.86257033463918</v>
+      </c>
+      <c r="K2794" t="n">
+        <v>8.59802419170644</v>
+      </c>
       <c r="L2794" t="inlineStr"/>
       <c r="M2794" t="inlineStr"/>
     </row>
@@ -49569,38 +50235,16 @@
       <c r="A2810" s="1" t="n">
         <v>2808</v>
       </c>
-      <c r="B2810" t="n">
-        <v>1.998500321471511</v>
-      </c>
-      <c r="C2810" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D2810" t="n">
-        <v>3.531339844229552</v>
-      </c>
-      <c r="E2810" t="n">
-        <v>2820</v>
-      </c>
-      <c r="F2810" t="n">
-        <v>-9958.378360727336</v>
-      </c>
-      <c r="G2810" t="n">
-        <v>5.297009766344328</v>
-      </c>
-      <c r="H2810" t="n">
-        <v>3.354772852018074</v>
-      </c>
-      <c r="I2810" t="n">
-        <v>3.531339844229552</v>
-      </c>
-      <c r="J2810" t="n">
-        <v>3.565449850295308</v>
-      </c>
-      <c r="K2810" t="n">
-        <v>3.505757492163081</v>
-      </c>
+      <c r="B2810" t="inlineStr"/>
+      <c r="C2810" t="inlineStr"/>
+      <c r="D2810" t="inlineStr"/>
+      <c r="E2810" t="inlineStr"/>
+      <c r="F2810" t="inlineStr"/>
+      <c r="G2810" t="inlineStr"/>
+      <c r="H2810" t="inlineStr"/>
+      <c r="I2810" t="inlineStr"/>
+      <c r="J2810" t="inlineStr"/>
+      <c r="K2810" t="inlineStr"/>
       <c r="L2810" t="inlineStr"/>
       <c r="M2810" t="inlineStr"/>
     </row>
@@ -49676,18 +50320,42 @@
       <c r="A2815" s="1" t="n">
         <v>2813</v>
       </c>
-      <c r="B2815" t="inlineStr"/>
-      <c r="C2815" t="inlineStr"/>
-      <c r="D2815" t="inlineStr"/>
-      <c r="E2815" t="inlineStr"/>
-      <c r="F2815" t="inlineStr"/>
+      <c r="B2815" t="n">
+        <v>998.5578703321623</v>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2815" t="n">
+        <v>9.547362497944349</v>
+      </c>
+      <c r="E2815" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2815" t="n">
+        <v>898.7800188570187</v>
+      </c>
       <c r="G2815" t="inlineStr"/>
       <c r="H2815" t="inlineStr"/>
-      <c r="I2815" t="inlineStr"/>
-      <c r="J2815" t="inlineStr"/>
-      <c r="K2815" t="inlineStr"/>
-      <c r="L2815" t="inlineStr"/>
-      <c r="M2815" t="inlineStr"/>
+      <c r="I2815" t="n">
+        <v>9.83742326906491</v>
+      </c>
+      <c r="J2815" t="n">
+        <v>9.849509422678027</v>
+      </c>
+      <c r="K2815" t="n">
+        <v>9.523190767017635</v>
+      </c>
+      <c r="L2815" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M2815" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="2816">
       <c r="A2816" s="1" t="n">
@@ -49948,42 +50616,18 @@
       <c r="A2831" s="1" t="n">
         <v>2829</v>
       </c>
-      <c r="B2831" t="n">
-        <v>10729.58523198315</v>
-      </c>
-      <c r="C2831" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D2831" t="n">
-        <v>3.804108770092795</v>
-      </c>
-      <c r="E2831" t="n">
-        <v>2820</v>
-      </c>
-      <c r="F2831" t="n">
-        <v>9958.378360727336</v>
-      </c>
+      <c r="B2831" t="inlineStr"/>
+      <c r="C2831" t="inlineStr"/>
+      <c r="D2831" t="inlineStr"/>
+      <c r="E2831" t="inlineStr"/>
+      <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
       <c r="H2831" t="inlineStr"/>
-      <c r="I2831" t="n">
-        <v>3.83870352141123</v>
-      </c>
-      <c r="J2831" t="n">
-        <v>3.859460108266291</v>
-      </c>
-      <c r="K2831" t="n">
-        <v>3.741838349687611</v>
-      </c>
-      <c r="L2831" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M2831" t="n">
-        <v>8</v>
-      </c>
+      <c r="I2831" t="inlineStr"/>
+      <c r="J2831" t="inlineStr"/>
+      <c r="K2831" t="inlineStr"/>
+      <c r="L2831" t="inlineStr"/>
+      <c r="M2831" t="inlineStr"/>
     </row>
     <row r="2832">
       <c r="A2832" s="1" t="n">
@@ -51027,7 +51671,7 @@
         <v>2891</v>
       </c>
       <c r="B2893" t="n">
-        <v>2.12649026613326</v>
+        <v>5.982406074687106</v>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
@@ -51035,28 +51679,28 @@
         </is>
       </c>
       <c r="D2893" t="n">
-        <v>3.196501412907335</v>
+        <v>9.023413311431593</v>
       </c>
       <c r="E2893" t="n">
-        <v>3356</v>
+        <v>110</v>
       </c>
       <c r="F2893" t="n">
-        <v>-10727.45874171702</v>
+        <v>-992.5754642574752</v>
       </c>
       <c r="G2893" t="n">
-        <v>4.794752119361004</v>
+        <v>13.53511996714739</v>
       </c>
       <c r="H2893" t="n">
-        <v>3.036676342261968</v>
+        <v>8.572242645860014</v>
       </c>
       <c r="I2893" t="n">
-        <v>3.196501412907335</v>
+        <v>9.023413311431593</v>
       </c>
       <c r="J2893" t="n">
-        <v>3.388658812938997</v>
+        <v>9.389435597240956</v>
       </c>
       <c r="K2893" t="n">
-        <v>3.196501412907335</v>
+        <v>8.999798988573243</v>
       </c>
       <c r="L2893" t="inlineStr"/>
       <c r="M2893" t="inlineStr"/>
@@ -51406,7 +52050,7 @@
         <v>2912</v>
       </c>
       <c r="B2914" t="n">
-        <v>12437.97346102609</v>
+        <v>1916.474618305243</v>
       </c>
       <c r="C2914" t="inlineStr">
         <is>
@@ -51414,32 +52058,32 @@
         </is>
       </c>
       <c r="D2914" t="n">
-        <v>3.705556308331336</v>
+        <v>8.572242645860014</v>
       </c>
       <c r="E2914" t="n">
-        <v>3356</v>
+        <v>110</v>
       </c>
       <c r="F2914" t="n">
-        <v>10727.45874171702</v>
+        <v>992.5754642574752</v>
       </c>
       <c r="G2914" t="inlineStr"/>
       <c r="H2914" t="inlineStr"/>
       <c r="I2914" t="n">
-        <v>3.59451609726369</v>
+        <v>8.624930811717782</v>
       </c>
       <c r="J2914" t="n">
-        <v>3.745213715670313</v>
+        <v>8.881337446872971</v>
       </c>
       <c r="K2914" t="n">
-        <v>3.546927435377556</v>
+        <v>8.539461739262578</v>
       </c>
       <c r="L2914" t="inlineStr">
         <is>
-          <t>VINCITA</t>
+          <t>PERDITA</t>
         </is>
       </c>
       <c r="M2914" t="n">
-        <v>16</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="2915">
@@ -52245,16 +52889,38 @@
       <c r="A2962" s="1" t="n">
         <v>2960</v>
       </c>
-      <c r="B2962" t="inlineStr"/>
-      <c r="C2962" t="inlineStr"/>
-      <c r="D2962" t="inlineStr"/>
-      <c r="E2962" t="inlineStr"/>
-      <c r="F2962" t="inlineStr"/>
-      <c r="G2962" t="inlineStr"/>
-      <c r="H2962" t="inlineStr"/>
-      <c r="I2962" t="inlineStr"/>
-      <c r="J2962" t="inlineStr"/>
-      <c r="K2962" t="inlineStr"/>
+      <c r="B2962" t="n">
+        <v>1.943669938478706</v>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2962" t="n">
+        <v>8.988408208294668</v>
+      </c>
+      <c r="E2962" t="n">
+        <v>213</v>
+      </c>
+      <c r="F2962" t="n">
+        <v>-1914.530948366764</v>
+      </c>
+      <c r="G2962" t="n">
+        <v>13.482612312442</v>
+      </c>
+      <c r="H2962" t="n">
+        <v>8.538987797879935</v>
+      </c>
+      <c r="I2962" t="n">
+        <v>8.988408208294668</v>
+      </c>
+      <c r="J2962" t="n">
+        <v>9.12929079636538</v>
+      </c>
+      <c r="K2962" t="n">
+        <v>8.748907472683872</v>
+      </c>
       <c r="L2962" t="inlineStr"/>
       <c r="M2962" t="inlineStr"/>
     </row>
@@ -52551,33 +53217,79 @@
       <c r="A2980" s="1" t="n">
         <v>2978</v>
       </c>
-      <c r="B2980" t="inlineStr"/>
-      <c r="C2980" t="inlineStr"/>
-      <c r="D2980" t="inlineStr"/>
-      <c r="E2980" t="inlineStr"/>
-      <c r="F2980" t="inlineStr"/>
+      <c r="B2980" t="n">
+        <v>1820.748070886905</v>
+      </c>
+      <c r="C2980" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D2980" t="n">
+        <v>8.538987797879935</v>
+      </c>
+      <c r="E2980" t="n">
+        <v>213</v>
+      </c>
+      <c r="F2980" t="n">
+        <v>1914.530948366764</v>
+      </c>
       <c r="G2980" t="inlineStr"/>
       <c r="H2980" t="inlineStr"/>
-      <c r="I2980" t="inlineStr"/>
-      <c r="J2980" t="inlineStr"/>
-      <c r="K2980" t="inlineStr"/>
-      <c r="L2980" t="inlineStr"/>
-      <c r="M2980" t="inlineStr"/>
+      <c r="I2980" t="n">
+        <v>8.678466514539101</v>
+      </c>
+      <c r="J2980" t="n">
+        <v>8.777083990298015</v>
+      </c>
+      <c r="K2980" t="n">
+        <v>8.326259708471735</v>
+      </c>
+      <c r="L2980" t="inlineStr">
+        <is>
+          <t>PERDITA</t>
+        </is>
+      </c>
+      <c r="M2980" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="2981">
       <c r="A2981" s="1" t="n">
         <v>2979</v>
       </c>
-      <c r="B2981" t="inlineStr"/>
-      <c r="C2981" t="inlineStr"/>
-      <c r="D2981" t="inlineStr"/>
-      <c r="E2981" t="inlineStr"/>
-      <c r="F2981" t="inlineStr"/>
-      <c r="G2981" t="inlineStr"/>
-      <c r="H2981" t="inlineStr"/>
-      <c r="I2981" t="inlineStr"/>
-      <c r="J2981" t="inlineStr"/>
-      <c r="K2981" t="inlineStr"/>
+      <c r="B2981" t="n">
+        <v>7.793638817311603</v>
+      </c>
+      <c r="C2981" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D2981" t="n">
+        <v>8.551671849384874</v>
+      </c>
+      <c r="E2981" t="n">
+        <v>212</v>
+      </c>
+      <c r="F2981" t="n">
+        <v>-1812.954432069593</v>
+      </c>
+      <c r="G2981" t="n">
+        <v>12.82750777407731</v>
+      </c>
+      <c r="H2981" t="n">
+        <v>8.124088256915631</v>
+      </c>
+      <c r="I2981" t="n">
+        <v>8.551671849384874</v>
+      </c>
+      <c r="J2981" t="n">
+        <v>9.199732426291321</v>
+      </c>
+      <c r="K2981" t="n">
+        <v>8.523495331770732</v>
+      </c>
       <c r="L2981" t="inlineStr"/>
       <c r="M2981" t="inlineStr"/>
     </row>
@@ -52925,18 +53637,42 @@
       <c r="A3002" s="1" t="n">
         <v>3000</v>
       </c>
-      <c r="B3002" t="inlineStr"/>
-      <c r="C3002" t="inlineStr"/>
-      <c r="D3002" t="inlineStr"/>
-      <c r="E3002" t="inlineStr"/>
-      <c r="F3002" t="inlineStr"/>
+      <c r="B3002" t="n">
+        <v>2162.306752365865</v>
+      </c>
+      <c r="C3002" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D3002" t="n">
+        <v>10.1627977054177</v>
+      </c>
+      <c r="E3002" t="n">
+        <v>212</v>
+      </c>
+      <c r="F3002" t="n">
+        <v>1812.954432069593</v>
+      </c>
       <c r="G3002" t="inlineStr"/>
       <c r="H3002" t="inlineStr"/>
-      <c r="I3002" t="inlineStr"/>
-      <c r="J3002" t="inlineStr"/>
-      <c r="K3002" t="inlineStr"/>
-      <c r="L3002" t="inlineStr"/>
-      <c r="M3002" t="inlineStr"/>
+      <c r="I3002" t="n">
+        <v>10.07599378195266</v>
+      </c>
+      <c r="J3002" t="n">
+        <v>10.1875989108802</v>
+      </c>
+      <c r="K3002" t="n">
+        <v>9.927185957870298</v>
+      </c>
+      <c r="L3002" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M3002" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="3003">
       <c r="A3003" s="1" t="n">
@@ -53537,38 +54273,16 @@
       <c r="A3038" s="1" t="n">
         <v>3036</v>
       </c>
-      <c r="B3038" t="n">
-        <v>0.2770902367992676</v>
-      </c>
-      <c r="C3038" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D3038" t="n">
-        <v>3.414135704306696</v>
-      </c>
-      <c r="E3038" t="n">
-        <v>3643</v>
-      </c>
-      <c r="F3038" t="n">
-        <v>-12437.6963707893</v>
-      </c>
-      <c r="G3038" t="n">
-        <v>5.121203556460045</v>
-      </c>
-      <c r="H3038" t="n">
-        <v>3.243428919091361</v>
-      </c>
-      <c r="I3038" t="n">
-        <v>3.414135704306696</v>
-      </c>
-      <c r="J3038" t="n">
-        <v>3.479311003011766</v>
-      </c>
-      <c r="K3038" t="n">
-        <v>3.39241060473834</v>
-      </c>
+      <c r="B3038" t="inlineStr"/>
+      <c r="C3038" t="inlineStr"/>
+      <c r="D3038" t="inlineStr"/>
+      <c r="E3038" t="inlineStr"/>
+      <c r="F3038" t="inlineStr"/>
+      <c r="G3038" t="inlineStr"/>
+      <c r="H3038" t="inlineStr"/>
+      <c r="I3038" t="inlineStr"/>
+      <c r="J3038" t="inlineStr"/>
+      <c r="K3038" t="inlineStr"/>
       <c r="L3038" t="inlineStr"/>
       <c r="M3038" t="inlineStr"/>
     </row>
@@ -53610,42 +54324,18 @@
       <c r="A3041" s="1" t="n">
         <v>3039</v>
       </c>
-      <c r="B3041" t="n">
-        <v>11816.08864248663</v>
-      </c>
-      <c r="C3041" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D3041" t="n">
-        <v>3.243428919091361</v>
-      </c>
-      <c r="E3041" t="n">
-        <v>3643</v>
-      </c>
-      <c r="F3041" t="n">
-        <v>12437.6963707893</v>
-      </c>
+      <c r="B3041" t="inlineStr"/>
+      <c r="C3041" t="inlineStr"/>
+      <c r="D3041" t="inlineStr"/>
+      <c r="E3041" t="inlineStr"/>
+      <c r="F3041" t="inlineStr"/>
       <c r="G3041" t="inlineStr"/>
       <c r="H3041" t="inlineStr"/>
-      <c r="I3041" t="n">
-        <v>3.311234119424124</v>
-      </c>
-      <c r="J3041" t="n">
-        <v>3.348042468773602</v>
-      </c>
-      <c r="K3041" t="n">
-        <v>3.215532235599425</v>
-      </c>
-      <c r="L3041" t="inlineStr">
-        <is>
-          <t>PERDITA</t>
-        </is>
-      </c>
-      <c r="M3041" t="n">
-        <v>-5</v>
-      </c>
+      <c r="I3041" t="inlineStr"/>
+      <c r="J3041" t="inlineStr"/>
+      <c r="K3041" t="inlineStr"/>
+      <c r="L3041" t="inlineStr"/>
+      <c r="M3041" t="inlineStr"/>
     </row>
     <row r="3042">
       <c r="A3042" s="1" t="n">
@@ -54280,38 +54970,16 @@
       <c r="A3079" s="1" t="n">
         <v>3077</v>
       </c>
-      <c r="B3079" t="n">
-        <v>0.9564729954090581</v>
-      </c>
-      <c r="C3079" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D3079" t="n">
-        <v>3.382517082591245</v>
-      </c>
-      <c r="E3079" t="n">
-        <v>3493</v>
-      </c>
-      <c r="F3079" t="n">
-        <v>-11815.13216949122</v>
-      </c>
-      <c r="G3079" t="n">
-        <v>5.073775623886868</v>
-      </c>
-      <c r="H3079" t="n">
-        <v>3.213391228461683</v>
-      </c>
-      <c r="I3079" t="n">
-        <v>3.382517082591245</v>
-      </c>
-      <c r="J3079" t="n">
-        <v>3.604278345022297</v>
-      </c>
-      <c r="K3079" t="n">
-        <v>3.327076833073473</v>
-      </c>
+      <c r="B3079" t="inlineStr"/>
+      <c r="C3079" t="inlineStr"/>
+      <c r="D3079" t="inlineStr"/>
+      <c r="E3079" t="inlineStr"/>
+      <c r="F3079" t="inlineStr"/>
+      <c r="G3079" t="inlineStr"/>
+      <c r="H3079" t="inlineStr"/>
+      <c r="I3079" t="inlineStr"/>
+      <c r="J3079" t="inlineStr"/>
+      <c r="K3079" t="inlineStr"/>
       <c r="L3079" t="inlineStr"/>
       <c r="M3079" t="inlineStr"/>
     </row>
@@ -54659,42 +55327,18 @@
       <c r="A3100" s="1" t="n">
         <v>3098</v>
       </c>
-      <c r="B3100" t="n">
-        <v>12572.91882617499</v>
-      </c>
-      <c r="C3100" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D3100" t="n">
-        <v>3.599187619003601</v>
-      </c>
-      <c r="E3100" t="n">
-        <v>3493</v>
-      </c>
-      <c r="F3100" t="n">
-        <v>11815.13216949122</v>
-      </c>
+      <c r="B3100" t="inlineStr"/>
+      <c r="C3100" t="inlineStr"/>
+      <c r="D3100" t="inlineStr"/>
+      <c r="E3100" t="inlineStr"/>
+      <c r="F3100" t="inlineStr"/>
       <c r="G3100" t="inlineStr"/>
       <c r="H3100" t="inlineStr"/>
-      <c r="I3100" t="n">
-        <v>3.622386529422938</v>
-      </c>
-      <c r="J3100" t="n">
-        <v>3.657184480227646</v>
-      </c>
-      <c r="K3100" t="n">
-        <v>3.587588302068698</v>
-      </c>
-      <c r="L3100" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M3100" t="n">
-        <v>6</v>
-      </c>
+      <c r="I3100" t="inlineStr"/>
+      <c r="J3100" t="inlineStr"/>
+      <c r="K3100" t="inlineStr"/>
+      <c r="L3100" t="inlineStr"/>
+      <c r="M3100" t="inlineStr"/>
     </row>
     <row r="3101">
       <c r="A3101" s="1" t="n">
@@ -55380,16 +56024,38 @@
       <c r="A3141" s="1" t="n">
         <v>3139</v>
       </c>
-      <c r="B3141" t="inlineStr"/>
-      <c r="C3141" t="inlineStr"/>
-      <c r="D3141" t="inlineStr"/>
-      <c r="E3141" t="inlineStr"/>
-      <c r="F3141" t="inlineStr"/>
-      <c r="G3141" t="inlineStr"/>
-      <c r="H3141" t="inlineStr"/>
-      <c r="I3141" t="inlineStr"/>
-      <c r="J3141" t="inlineStr"/>
-      <c r="K3141" t="inlineStr"/>
+      <c r="B3141" t="n">
+        <v>2.884590019543793</v>
+      </c>
+      <c r="C3141" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D3141" t="n">
+        <v>8.70734742881581</v>
+      </c>
+      <c r="E3141" t="n">
+        <v>248</v>
+      </c>
+      <c r="F3141" t="n">
+        <v>-2159.422162346321</v>
+      </c>
+      <c r="G3141" t="n">
+        <v>13.06102114322372</v>
+      </c>
+      <c r="H3141" t="n">
+        <v>8.27198005737502</v>
+      </c>
+      <c r="I3141" t="n">
+        <v>8.70734742881581</v>
+      </c>
+      <c r="J3141" t="n">
+        <v>8.890494772637568</v>
+      </c>
+      <c r="K3141" t="n">
+        <v>8.679874672255979</v>
+      </c>
       <c r="L3141" t="inlineStr"/>
       <c r="M3141" t="inlineStr"/>
     </row>
@@ -55737,18 +56403,42 @@
       <c r="A3162" s="1" t="n">
         <v>3160</v>
       </c>
-      <c r="B3162" t="inlineStr"/>
-      <c r="C3162" t="inlineStr"/>
-      <c r="D3162" t="inlineStr"/>
-      <c r="E3162" t="inlineStr"/>
-      <c r="F3162" t="inlineStr"/>
+      <c r="B3162" t="n">
+        <v>2444.41973282965</v>
+      </c>
+      <c r="C3162" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D3162" t="n">
+        <v>9.844899769395589</v>
+      </c>
+      <c r="E3162" t="n">
+        <v>248</v>
+      </c>
+      <c r="F3162" t="n">
+        <v>2159.422162346321</v>
+      </c>
       <c r="G3162" t="inlineStr"/>
       <c r="H3162" t="inlineStr"/>
-      <c r="I3162" t="inlineStr"/>
-      <c r="J3162" t="inlineStr"/>
-      <c r="K3162" t="inlineStr"/>
-      <c r="L3162" t="inlineStr"/>
-      <c r="M3162" t="inlineStr"/>
+      <c r="I3162" t="n">
+        <v>9.949683069181088</v>
+      </c>
+      <c r="J3162" t="n">
+        <v>10.07193071490075</v>
+      </c>
+      <c r="K3162" t="n">
+        <v>9.827435423461422</v>
+      </c>
+      <c r="L3162" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M3162" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="3163">
       <c r="A3163" s="1" t="n">
@@ -55822,38 +56512,16 @@
       <c r="A3167" s="1" t="n">
         <v>3165</v>
       </c>
-      <c r="B3167" t="n">
-        <v>1.912227051452646</v>
-      </c>
-      <c r="C3167" t="inlineStr">
-        <is>
-          <t>COMPRA</t>
-        </is>
-      </c>
-      <c r="D3167" t="n">
-        <v>3.333600264949227</v>
-      </c>
-      <c r="E3167" t="n">
-        <v>3771</v>
-      </c>
-      <c r="F3167" t="n">
-        <v>-12571.00659912354</v>
-      </c>
-      <c r="G3167" t="n">
-        <v>5.00040039742384</v>
-      </c>
-      <c r="H3167" t="n">
-        <v>3.166920251701766</v>
-      </c>
-      <c r="I3167" t="n">
-        <v>3.333600264949227</v>
-      </c>
-      <c r="J3167" t="n">
-        <v>3.46528086353096</v>
-      </c>
-      <c r="K3167" t="n">
-        <v>3.30538304187826</v>
-      </c>
+      <c r="B3167" t="inlineStr"/>
+      <c r="C3167" t="inlineStr"/>
+      <c r="D3167" t="inlineStr"/>
+      <c r="E3167" t="inlineStr"/>
+      <c r="F3167" t="inlineStr"/>
+      <c r="G3167" t="inlineStr"/>
+      <c r="H3167" t="inlineStr"/>
+      <c r="I3167" t="inlineStr"/>
+      <c r="J3167" t="inlineStr"/>
+      <c r="K3167" t="inlineStr"/>
       <c r="L3167" t="inlineStr"/>
       <c r="M3167" t="inlineStr"/>
     </row>
@@ -56201,42 +56869,18 @@
       <c r="A3188" s="1" t="n">
         <v>3186</v>
       </c>
-      <c r="B3188" t="n">
-        <v>14089.07411744821</v>
-      </c>
-      <c r="C3188" t="inlineStr">
-        <is>
-          <t>VENDI</t>
-        </is>
-      </c>
-      <c r="D3188" t="n">
-        <v>3.73565682588087</v>
-      </c>
-      <c r="E3188" t="n">
-        <v>3771</v>
-      </c>
-      <c r="F3188" t="n">
-        <v>12571.00659912354</v>
-      </c>
+      <c r="B3188" t="inlineStr"/>
+      <c r="C3188" t="inlineStr"/>
+      <c r="D3188" t="inlineStr"/>
+      <c r="E3188" t="inlineStr"/>
+      <c r="F3188" t="inlineStr"/>
       <c r="G3188" t="inlineStr"/>
       <c r="H3188" t="inlineStr"/>
-      <c r="I3188" t="n">
-        <v>3.799628456819583</v>
-      </c>
-      <c r="J3188" t="n">
-        <v>3.839610916806778</v>
-      </c>
-      <c r="K3188" t="n">
-        <v>3.719663918146191</v>
-      </c>
-      <c r="L3188" t="inlineStr">
-        <is>
-          <t>VINCITA</t>
-        </is>
-      </c>
-      <c r="M3188" t="n">
-        <v>12</v>
-      </c>
+      <c r="I3188" t="inlineStr"/>
+      <c r="J3188" t="inlineStr"/>
+      <c r="K3188" t="inlineStr"/>
+      <c r="L3188" t="inlineStr"/>
+      <c r="M3188" t="inlineStr"/>
     </row>
     <row r="3189">
       <c r="A3189" s="1" t="n">
@@ -57228,16 +57872,38 @@
       <c r="A3247" s="1" t="n">
         <v>3245</v>
       </c>
-      <c r="B3247" t="inlineStr"/>
-      <c r="C3247" t="inlineStr"/>
-      <c r="D3247" t="inlineStr"/>
-      <c r="E3247" t="inlineStr"/>
-      <c r="F3247" t="inlineStr"/>
-      <c r="G3247" t="inlineStr"/>
-      <c r="H3247" t="inlineStr"/>
-      <c r="I3247" t="inlineStr"/>
-      <c r="J3247" t="inlineStr"/>
-      <c r="K3247" t="inlineStr"/>
+      <c r="B3247" t="n">
+        <v>0.4741830186244442</v>
+      </c>
+      <c r="C3247" t="inlineStr">
+        <is>
+          <t>COMPRA</t>
+        </is>
+      </c>
+      <c r="D3247" t="n">
+        <v>8.919509305879656</v>
+      </c>
+      <c r="E3247" t="n">
+        <v>274</v>
+      </c>
+      <c r="F3247" t="n">
+        <v>-2443.945549811026</v>
+      </c>
+      <c r="G3247" t="n">
+        <v>13.37926395881948</v>
+      </c>
+      <c r="H3247" t="n">
+        <v>8.473533840585672</v>
+      </c>
+      <c r="I3247" t="n">
+        <v>8.919509305879656</v>
+      </c>
+      <c r="J3247" t="n">
+        <v>9.030244041093669</v>
+      </c>
+      <c r="K3247" t="n">
+        <v>8.912588219921009</v>
+      </c>
       <c r="L3247" t="inlineStr"/>
       <c r="M3247" t="inlineStr"/>
     </row>
@@ -57585,18 +58251,42 @@
       <c r="A3268" s="1" t="n">
         <v>3266</v>
       </c>
-      <c r="B3268" t="inlineStr"/>
-      <c r="C3268" t="inlineStr"/>
-      <c r="D3268" t="inlineStr"/>
-      <c r="E3268" t="inlineStr"/>
-      <c r="F3268" t="inlineStr"/>
+      <c r="B3268" t="n">
+        <v>2683.777837744748</v>
+      </c>
+      <c r="C3268" t="inlineStr">
+        <is>
+          <t>VENDI</t>
+        </is>
+      </c>
+      <c r="D3268" t="n">
+        <v>9.793079031847167</v>
+      </c>
+      <c r="E3268" t="n">
+        <v>274</v>
+      </c>
+      <c r="F3268" t="n">
+        <v>2443.945549811026</v>
+      </c>
       <c r="G3268" t="inlineStr"/>
       <c r="H3268" t="inlineStr"/>
-      <c r="I3268" t="inlineStr"/>
-      <c r="J3268" t="inlineStr"/>
-      <c r="K3268" t="inlineStr"/>
-      <c r="L3268" t="inlineStr"/>
-      <c r="M3268" t="inlineStr"/>
+      <c r="I3268" t="n">
+        <v>9.896973540313001</v>
+      </c>
+      <c r="J3268" t="n">
+        <v>9.940263125260472</v>
+      </c>
+      <c r="K3268" t="n">
+        <v>9.767105611150747</v>
+      </c>
+      <c r="L3268" t="inlineStr">
+        <is>
+          <t>VINCITA</t>
+        </is>
+      </c>
+      <c r="M3268" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3269">
       <c r="A3269" s="1" t="n">
